--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\FossilHistory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B1DD62-C80E-4118-B55D-7B6CED71EC6D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7884D495-6922-4BA5-9620-A937087EC9AC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7950" xr2:uid="{27D6A6C2-2131-4514-A1D3-03A0EF2C7614}"/>
   </bookViews>
@@ -435,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F180BB6D-9196-420E-BBFA-7FDE3D0BE7D0}">
-  <dimension ref="A1:BJ67"/>
+  <dimension ref="A1:AJ67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:K67"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18:V44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -446,7 +446,7 @@
     <col min="2" max="2" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>0</v>
       </c>
@@ -455,7 +455,7 @@
       </c>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -464,7 +464,7 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -472,8 +472,11 @@
         <v>6</v>
       </c>
       <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -481,8 +484,14 @@
         <v>7</v>
       </c>
       <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -490,35 +499,29 @@
         <v>8</v>
       </c>
       <c r="I5" s="2"/>
-      <c r="Q5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="AI5">
+        <v>1</v>
+      </c>
+      <c r="AJ5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-      <c r="R6">
-        <v>1</v>
-      </c>
-      <c r="S6">
-        <v>1</v>
-      </c>
-      <c r="T6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -526,167 +529,14 @@
         <v>2</v>
       </c>
       <c r="I7" s="2"/>
-      <c r="J7">
-        <v>3</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>3</v>
-      </c>
-      <c r="M7">
-        <v>3</v>
-      </c>
-      <c r="N7">
-        <v>3</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>3</v>
-      </c>
-      <c r="V7">
-        <v>3</v>
-      </c>
-      <c r="W7">
-        <v>3</v>
-      </c>
-      <c r="X7">
-        <v>3</v>
-      </c>
-      <c r="Y7">
-        <v>3</v>
-      </c>
-      <c r="Z7">
-        <v>3</v>
-      </c>
-      <c r="AA7">
-        <v>3</v>
-      </c>
-      <c r="AB7">
-        <v>3</v>
-      </c>
-      <c r="AC7">
-        <v>3</v>
-      </c>
-      <c r="AD7">
-        <v>3</v>
-      </c>
-      <c r="AE7">
-        <v>3</v>
-      </c>
-      <c r="AF7">
-        <v>3</v>
-      </c>
-      <c r="AG7">
-        <v>3</v>
-      </c>
-      <c r="AH7">
-        <v>3</v>
-      </c>
       <c r="AI7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AJ7">
-        <v>3</v>
-      </c>
-      <c r="AK7">
-        <v>3</v>
-      </c>
-      <c r="AL7">
-        <v>3</v>
-      </c>
-      <c r="AM7">
-        <v>3</v>
-      </c>
-      <c r="AN7">
-        <v>3</v>
-      </c>
-      <c r="AO7">
-        <v>3</v>
-      </c>
-      <c r="AP7">
-        <v>3</v>
-      </c>
-      <c r="AQ7">
-        <v>3</v>
-      </c>
-      <c r="AR7">
-        <v>3</v>
-      </c>
-      <c r="AS7">
-        <v>3</v>
-      </c>
-      <c r="AT7">
-        <v>3</v>
-      </c>
-      <c r="AU7">
-        <v>3</v>
-      </c>
-      <c r="AV7">
-        <v>3</v>
-      </c>
-      <c r="AW7">
-        <v>3</v>
-      </c>
-      <c r="AX7">
-        <v>3</v>
-      </c>
-      <c r="AY7">
-        <v>3</v>
-      </c>
-      <c r="AZ7">
-        <v>3</v>
-      </c>
-      <c r="BA7">
-        <v>3</v>
-      </c>
-      <c r="BB7">
-        <v>3</v>
-      </c>
-      <c r="BC7">
-        <v>3</v>
-      </c>
-      <c r="BD7">
-        <v>3</v>
-      </c>
-      <c r="BE7">
-        <v>3</v>
-      </c>
-      <c r="BF7">
-        <v>3</v>
-      </c>
-      <c r="BG7">
-        <v>3</v>
-      </c>
-      <c r="BH7">
-        <v>3</v>
-      </c>
-      <c r="BI7">
-        <v>3</v>
-      </c>
-      <c r="BJ7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -694,167 +544,41 @@
         <v>3</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8">
-        <v>2</v>
-      </c>
       <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>2</v>
-      </c>
-      <c r="M8">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V8">
-        <v>2</v>
-      </c>
-      <c r="W8">
-        <v>2</v>
-      </c>
-      <c r="X8">
-        <v>2</v>
-      </c>
-      <c r="Y8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC8">
-        <v>2</v>
-      </c>
-      <c r="AD8">
-        <v>2</v>
-      </c>
-      <c r="AE8">
-        <v>2</v>
-      </c>
-      <c r="AF8">
-        <v>2</v>
-      </c>
-      <c r="AG8">
-        <v>2</v>
-      </c>
-      <c r="AH8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ8">
-        <v>2</v>
-      </c>
-      <c r="AK8">
-        <v>2</v>
-      </c>
-      <c r="AL8">
-        <v>2</v>
-      </c>
-      <c r="AM8">
-        <v>2</v>
-      </c>
-      <c r="AN8">
-        <v>2</v>
-      </c>
-      <c r="AO8">
-        <v>2</v>
-      </c>
-      <c r="AP8">
-        <v>2</v>
-      </c>
-      <c r="AQ8">
-        <v>2</v>
-      </c>
-      <c r="AR8">
-        <v>2</v>
-      </c>
-      <c r="AS8">
-        <v>2</v>
-      </c>
-      <c r="AT8">
-        <v>2</v>
-      </c>
-      <c r="AU8">
-        <v>2</v>
-      </c>
-      <c r="AV8">
-        <v>2</v>
-      </c>
-      <c r="AW8">
-        <v>2</v>
-      </c>
-      <c r="AX8">
-        <v>2</v>
-      </c>
-      <c r="AY8">
-        <v>2</v>
-      </c>
-      <c r="AZ8">
-        <v>2</v>
-      </c>
-      <c r="BA8">
-        <v>2</v>
-      </c>
-      <c r="BB8">
-        <v>2</v>
-      </c>
-      <c r="BC8">
-        <v>2</v>
-      </c>
-      <c r="BD8">
-        <v>2</v>
-      </c>
-      <c r="BE8">
-        <v>2</v>
-      </c>
-      <c r="BF8">
-        <v>2</v>
-      </c>
-      <c r="BG8">
-        <v>2</v>
-      </c>
-      <c r="BH8">
-        <v>2</v>
-      </c>
-      <c r="BI8">
-        <v>2</v>
-      </c>
-      <c r="BJ8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -863,166 +587,61 @@
       </c>
       <c r="I9" s="2"/>
       <c r="J9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
       <c r="R9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>2</v>
-      </c>
-      <c r="X9">
-        <v>2</v>
-      </c>
-      <c r="Y9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC9">
-        <v>2</v>
-      </c>
-      <c r="AD9">
-        <v>2</v>
-      </c>
-      <c r="AE9">
-        <v>2</v>
-      </c>
-      <c r="AF9">
-        <v>2</v>
-      </c>
-      <c r="AG9">
-        <v>2</v>
-      </c>
-      <c r="AH9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ9">
-        <v>2</v>
-      </c>
-      <c r="AK9">
-        <v>2</v>
-      </c>
-      <c r="AL9">
-        <v>2</v>
-      </c>
-      <c r="AM9">
-        <v>2</v>
-      </c>
-      <c r="AN9">
-        <v>2</v>
-      </c>
-      <c r="AO9">
-        <v>2</v>
-      </c>
-      <c r="AP9">
-        <v>2</v>
-      </c>
-      <c r="AQ9">
-        <v>2</v>
-      </c>
-      <c r="AR9">
-        <v>2</v>
-      </c>
-      <c r="AS9">
-        <v>2</v>
-      </c>
-      <c r="AT9">
-        <v>2</v>
-      </c>
-      <c r="AU9">
-        <v>2</v>
-      </c>
-      <c r="AV9">
-        <v>2</v>
-      </c>
-      <c r="AW9">
-        <v>2</v>
-      </c>
-      <c r="AX9">
-        <v>2</v>
-      </c>
-      <c r="AY9">
-        <v>2</v>
-      </c>
-      <c r="AZ9">
-        <v>2</v>
-      </c>
-      <c r="BA9">
-        <v>2</v>
-      </c>
-      <c r="BB9">
-        <v>2</v>
-      </c>
-      <c r="BC9">
-        <v>2</v>
-      </c>
-      <c r="BD9">
-        <v>2</v>
-      </c>
-      <c r="BE9">
-        <v>2</v>
-      </c>
-      <c r="BF9">
-        <v>2</v>
-      </c>
-      <c r="BG9">
-        <v>2</v>
-      </c>
-      <c r="BH9">
-        <v>2</v>
-      </c>
-      <c r="BI9">
-        <v>2</v>
-      </c>
-      <c r="BJ9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:62" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1031,28 +650,28 @@
       </c>
       <c r="I10" s="2"/>
       <c r="J10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -1064,133 +683,55 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ10">
-        <v>2</v>
-      </c>
-      <c r="AK10">
-        <v>2</v>
-      </c>
-      <c r="AL10">
-        <v>2</v>
-      </c>
-      <c r="AM10">
-        <v>2</v>
-      </c>
-      <c r="AN10">
-        <v>2</v>
-      </c>
-      <c r="AO10">
-        <v>2</v>
-      </c>
-      <c r="AP10">
-        <v>2</v>
-      </c>
-      <c r="AQ10">
-        <v>2</v>
-      </c>
-      <c r="AR10">
-        <v>2</v>
-      </c>
-      <c r="AS10">
-        <v>2</v>
-      </c>
-      <c r="AT10">
-        <v>2</v>
-      </c>
-      <c r="AU10">
-        <v>2</v>
-      </c>
-      <c r="AV10">
-        <v>2</v>
-      </c>
-      <c r="AW10">
-        <v>2</v>
-      </c>
-      <c r="AX10">
-        <v>2</v>
-      </c>
-      <c r="AY10">
-        <v>2</v>
-      </c>
-      <c r="AZ10">
-        <v>2</v>
-      </c>
-      <c r="BA10">
-        <v>2</v>
-      </c>
-      <c r="BB10">
-        <v>2</v>
-      </c>
-      <c r="BC10">
-        <v>2</v>
-      </c>
-      <c r="BD10">
-        <v>2</v>
-      </c>
-      <c r="BE10">
-        <v>2</v>
-      </c>
-      <c r="BF10">
-        <v>2</v>
-      </c>
-      <c r="BG10">
-        <v>2</v>
-      </c>
-      <c r="BH10">
-        <v>2</v>
-      </c>
-      <c r="BI10">
-        <v>2</v>
-      </c>
-      <c r="BJ10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -1204,7 +745,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="15" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
       <c r="H15">
         <v>3</v>
       </c>
@@ -1218,7 +759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
       <c r="H16">
         <v>3</v>
       </c>
@@ -1232,7 +773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="6:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="6:23" x14ac:dyDescent="0.3">
       <c r="H17">
         <v>3</v>
       </c>
@@ -1246,7 +787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="6:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="6:23" x14ac:dyDescent="0.3">
       <c r="H18">
         <v>3</v>
       </c>
@@ -1259,8 +800,17 @@
       <c r="K18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>1</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="6:23" x14ac:dyDescent="0.3">
       <c r="H19">
         <v>3</v>
       </c>
@@ -1273,8 +823,20 @@
       <c r="K19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="T19">
+        <v>7</v>
+      </c>
+      <c r="U19">
+        <v>1</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="6:23" x14ac:dyDescent="0.3">
       <c r="G20">
         <v>1</v>
       </c>
@@ -1290,8 +852,17 @@
       <c r="K20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="U20">
+        <v>1</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="6:23" x14ac:dyDescent="0.3">
       <c r="G21">
         <v>1</v>
       </c>
@@ -1307,8 +878,17 @@
       <c r="K21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="6:23" x14ac:dyDescent="0.3">
       <c r="F22">
         <v>7</v>
       </c>
@@ -1327,8 +907,23 @@
       <c r="K22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="6:23" x14ac:dyDescent="0.3">
       <c r="G23">
         <v>1</v>
       </c>
@@ -1344,8 +939,20 @@
       <c r="K23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="6:23" x14ac:dyDescent="0.3">
       <c r="G24">
         <v>1</v>
       </c>
@@ -1361,8 +968,14 @@
       <c r="K24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="V24">
+        <v>3</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="6:23" x14ac:dyDescent="0.3">
       <c r="G25">
         <v>1</v>
       </c>
@@ -1378,8 +991,17 @@
       <c r="K25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="V25">
+        <v>3</v>
+      </c>
+      <c r="W25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="6:23" x14ac:dyDescent="0.3">
       <c r="H26">
         <v>3</v>
       </c>
@@ -1392,8 +1014,20 @@
       <c r="K26">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="P26">
+        <v>1</v>
+      </c>
+      <c r="U26">
+        <v>1</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="6:23" x14ac:dyDescent="0.3">
       <c r="H27">
         <v>3</v>
       </c>
@@ -1406,8 +1040,17 @@
       <c r="K27">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="U27">
+        <v>1</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="6:23" x14ac:dyDescent="0.3">
       <c r="H28">
         <v>3</v>
       </c>
@@ -1420,8 +1063,17 @@
       <c r="K28">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="U28">
+        <v>1</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="6:23" x14ac:dyDescent="0.3">
       <c r="H29">
         <v>3</v>
       </c>
@@ -1434,8 +1086,17 @@
       <c r="K29">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="T29">
+        <v>1</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="6:23" x14ac:dyDescent="0.3">
       <c r="H30">
         <v>3</v>
       </c>
@@ -1448,8 +1109,17 @@
       <c r="K30">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="T30">
+        <v>1</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="6:23" x14ac:dyDescent="0.3">
       <c r="H31">
         <v>3</v>
       </c>
@@ -1462,8 +1132,14 @@
       <c r="K31">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="U31">
+        <v>1</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="6:23" x14ac:dyDescent="0.3">
       <c r="H32">
         <v>3</v>
       </c>
@@ -1476,8 +1152,11 @@
       <c r="K32">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="V32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="8:22" x14ac:dyDescent="0.3">
       <c r="H33">
         <v>3</v>
       </c>
@@ -1490,8 +1169,11 @@
       <c r="K33">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="V33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="8:22" x14ac:dyDescent="0.3">
       <c r="H34">
         <v>3</v>
       </c>
@@ -1504,8 +1186,17 @@
       <c r="K34">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="T34">
+        <v>1</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="8:22" x14ac:dyDescent="0.3">
       <c r="H35">
         <v>3</v>
       </c>
@@ -1518,8 +1209,17 @@
       <c r="K35">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="T35">
+        <v>1</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="8:22" x14ac:dyDescent="0.3">
       <c r="H36">
         <v>3</v>
       </c>
@@ -1532,8 +1232,17 @@
       <c r="K36">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="T36">
+        <v>1</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="8:22" x14ac:dyDescent="0.3">
       <c r="H37">
         <v>3</v>
       </c>
@@ -1546,8 +1255,17 @@
       <c r="K37">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="T37">
+        <v>1</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="8:22" x14ac:dyDescent="0.3">
       <c r="H38">
         <v>3</v>
       </c>
@@ -1560,8 +1278,11 @@
       <c r="K38">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="V38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="8:22" x14ac:dyDescent="0.3">
       <c r="H39">
         <v>3</v>
       </c>
@@ -1574,8 +1295,11 @@
       <c r="K39">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="V39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="8:22" x14ac:dyDescent="0.3">
       <c r="H40">
         <v>3</v>
       </c>
@@ -1588,8 +1312,11 @@
       <c r="K40">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="V40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="8:22" x14ac:dyDescent="0.3">
       <c r="H41">
         <v>3</v>
       </c>
@@ -1602,8 +1329,11 @@
       <c r="K41">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="V41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="8:22" x14ac:dyDescent="0.3">
       <c r="H42">
         <v>3</v>
       </c>
@@ -1616,8 +1346,11 @@
       <c r="K42">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="V42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="8:22" x14ac:dyDescent="0.3">
       <c r="H43">
         <v>3</v>
       </c>
@@ -1630,8 +1363,26 @@
       <c r="K43">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="Q43">
+        <v>1</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="8:22" x14ac:dyDescent="0.3">
       <c r="H44">
         <v>3</v>
       </c>
@@ -1644,8 +1395,26 @@
       <c r="K44">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="Q44">
+        <v>1</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="8:22" x14ac:dyDescent="0.3">
       <c r="H45">
         <v>3</v>
       </c>
@@ -1659,7 +1428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="8:22" x14ac:dyDescent="0.3">
       <c r="H46">
         <v>3</v>
       </c>
@@ -1673,7 +1442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="8:22" x14ac:dyDescent="0.3">
       <c r="H47">
         <v>3</v>
       </c>
@@ -1687,7 +1456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="8:22" x14ac:dyDescent="0.3">
       <c r="H48">
         <v>3</v>
       </c>

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\FossilHistory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7884D495-6922-4BA5-9620-A937087EC9AC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2521014-F42D-41B0-BB41-0F0B1466AECB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7950" xr2:uid="{27D6A6C2-2131-4514-A1D3-03A0EF2C7614}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>땅속</t>
   </si>
@@ -59,6 +59,22 @@
   </si>
   <si>
     <t>연잎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프버섯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>땅속2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>땅 표면2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개구리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -435,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F180BB6D-9196-420E-BBFA-7FDE3D0BE7D0}">
-  <dimension ref="A1:AJ67"/>
+  <dimension ref="A1:AJ77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18:V44"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -513,6 +529,9 @@
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
       <c r="I6" s="2"/>
       <c r="AI6">
         <v>0</v>
@@ -732,6 +751,12 @@
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -745,6 +770,22 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.3">
       <c r="H15">
         <v>3</v>
@@ -773,7 +814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:23" x14ac:dyDescent="0.3">
       <c r="H17">
         <v>3</v>
       </c>
@@ -787,12 +828,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="6:23" x14ac:dyDescent="0.3">
-      <c r="H18">
-        <v>3</v>
-      </c>
+    <row r="18" spans="7:23" x14ac:dyDescent="0.3">
       <c r="I18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J18">
         <v>2</v>
@@ -800,22 +838,13 @@
       <c r="K18">
         <v>2</v>
       </c>
-      <c r="O18">
-        <v>1</v>
-      </c>
-      <c r="U18">
-        <v>1</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="6:23" x14ac:dyDescent="0.3">
-      <c r="H19">
-        <v>3</v>
-      </c>
+      <c r="L18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="7:23" x14ac:dyDescent="0.3">
       <c r="I19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J19">
         <v>2</v>
@@ -823,164 +852,92 @@
       <c r="K19">
         <v>2</v>
       </c>
-      <c r="T19">
+      <c r="L19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="7:23" x14ac:dyDescent="0.3">
+      <c r="I20">
+        <v>3</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="7:23" x14ac:dyDescent="0.3">
+      <c r="I21">
+        <v>3</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="7:23" x14ac:dyDescent="0.3">
+      <c r="I22">
+        <v>3</v>
+      </c>
+      <c r="J22">
+        <v>2</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="7:23" x14ac:dyDescent="0.3">
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="7:23" x14ac:dyDescent="0.3">
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="7:23" x14ac:dyDescent="0.3">
+      <c r="G25">
         <v>7</v>
       </c>
-      <c r="U19">
-        <v>1</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="6:23" x14ac:dyDescent="0.3">
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <v>1</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="6:23" x14ac:dyDescent="0.3">
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>1</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="6:23" x14ac:dyDescent="0.3">
-      <c r="F22">
-        <v>7</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>1</v>
-      </c>
-      <c r="T22">
-        <v>1</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="6:23" x14ac:dyDescent="0.3">
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="T23">
-        <v>1</v>
-      </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="6:23" x14ac:dyDescent="0.3">
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <v>3</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="6:23" x14ac:dyDescent="0.3">
-      <c r="G25">
-        <v>1</v>
-      </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -991,77 +948,59 @@
       <c r="K25">
         <v>0</v>
       </c>
-      <c r="P25">
-        <v>1</v>
-      </c>
-      <c r="V25">
-        <v>3</v>
-      </c>
-      <c r="W25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="6:23" x14ac:dyDescent="0.3">
+      <c r="L25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="7:23" x14ac:dyDescent="0.3">
       <c r="H26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="P26">
-        <v>1</v>
-      </c>
-      <c r="U26">
-        <v>1</v>
-      </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
-      <c r="W26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="6:23" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="7:23" x14ac:dyDescent="0.3">
       <c r="H27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>2</v>
-      </c>
-      <c r="U27">
-        <v>1</v>
-      </c>
-      <c r="V27">
-        <v>0</v>
-      </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="6:23" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="7:23" x14ac:dyDescent="0.3">
       <c r="H28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
       </c>
       <c r="U28">
         <v>1</v>
@@ -1073,12 +1012,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="6:23" x14ac:dyDescent="0.3">
-      <c r="H29">
-        <v>3</v>
-      </c>
+    <row r="29" spans="7:23" x14ac:dyDescent="0.3">
       <c r="I29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J29">
         <v>2</v>
@@ -1086,6 +1022,9 @@
       <c r="K29">
         <v>2</v>
       </c>
+      <c r="L29">
+        <v>2</v>
+      </c>
       <c r="T29">
         <v>1</v>
       </c>
@@ -1096,12 +1035,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="6:23" x14ac:dyDescent="0.3">
-      <c r="H30">
-        <v>3</v>
-      </c>
+    <row r="30" spans="7:23" x14ac:dyDescent="0.3">
       <c r="I30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J30">
         <v>2</v>
@@ -1109,6 +1045,9 @@
       <c r="K30">
         <v>2</v>
       </c>
+      <c r="L30">
+        <v>2</v>
+      </c>
       <c r="T30">
         <v>1</v>
       </c>
@@ -1119,12 +1058,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="6:23" x14ac:dyDescent="0.3">
-      <c r="H31">
-        <v>3</v>
-      </c>
+    <row r="31" spans="7:23" x14ac:dyDescent="0.3">
       <c r="I31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J31">
         <v>2</v>
@@ -1132,6 +1068,9 @@
       <c r="K31">
         <v>2</v>
       </c>
+      <c r="L31">
+        <v>2</v>
+      </c>
       <c r="U31">
         <v>1</v>
       </c>
@@ -1139,12 +1078,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="7:23" x14ac:dyDescent="0.3">
       <c r="H32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J32">
         <v>2</v>
@@ -1152,21 +1091,24 @@
       <c r="K32">
         <v>2</v>
       </c>
+      <c r="L32">
+        <v>2</v>
+      </c>
       <c r="V32">
         <v>3</v>
       </c>
     </row>
     <row r="33" spans="8:22" x14ac:dyDescent="0.3">
-      <c r="H33">
-        <v>3</v>
-      </c>
       <c r="I33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J33">
         <v>2</v>
       </c>
       <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
         <v>2</v>
       </c>
       <c r="V33">
@@ -1175,10 +1117,10 @@
     </row>
     <row r="34" spans="8:22" x14ac:dyDescent="0.3">
       <c r="H34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J34">
         <v>2</v>
@@ -1186,6 +1128,9 @@
       <c r="K34">
         <v>2</v>
       </c>
+      <c r="L34">
+        <v>2</v>
+      </c>
       <c r="T34">
         <v>1</v>
       </c>
@@ -1197,11 +1142,8 @@
       </c>
     </row>
     <row r="35" spans="8:22" x14ac:dyDescent="0.3">
-      <c r="H35">
-        <v>3</v>
-      </c>
       <c r="I35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J35">
         <v>2</v>
@@ -1209,6 +1151,9 @@
       <c r="K35">
         <v>2</v>
       </c>
+      <c r="L35">
+        <v>2</v>
+      </c>
       <c r="T35">
         <v>1</v>
       </c>
@@ -1220,16 +1165,16 @@
       </c>
     </row>
     <row r="36" spans="8:22" x14ac:dyDescent="0.3">
-      <c r="H36">
-        <v>3</v>
-      </c>
       <c r="I36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J36">
         <v>2</v>
       </c>
       <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
         <v>2</v>
       </c>
       <c r="T36">
@@ -1244,10 +1189,10 @@
     </row>
     <row r="37" spans="8:22" x14ac:dyDescent="0.3">
       <c r="H37">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J37">
         <v>2</v>
@@ -1255,6 +1200,9 @@
       <c r="K37">
         <v>2</v>
       </c>
+      <c r="L37">
+        <v>2</v>
+      </c>
       <c r="T37">
         <v>1</v>
       </c>
@@ -1266,11 +1214,8 @@
       </c>
     </row>
     <row r="38" spans="8:22" x14ac:dyDescent="0.3">
-      <c r="H38">
-        <v>3</v>
-      </c>
       <c r="I38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J38">
         <v>2</v>
@@ -1278,16 +1223,16 @@
       <c r="K38">
         <v>2</v>
       </c>
+      <c r="L38">
+        <v>2</v>
+      </c>
       <c r="V38">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="8:22" x14ac:dyDescent="0.3">
-      <c r="H39">
-        <v>3</v>
-      </c>
       <c r="I39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J39">
         <v>2</v>
@@ -1295,16 +1240,16 @@
       <c r="K39">
         <v>2</v>
       </c>
+      <c r="L39">
+        <v>2</v>
+      </c>
       <c r="V39">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="8:22" x14ac:dyDescent="0.3">
-      <c r="H40">
-        <v>3</v>
-      </c>
       <c r="I40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J40">
         <v>2</v>
@@ -1312,16 +1257,16 @@
       <c r="K40">
         <v>2</v>
       </c>
+      <c r="L40">
+        <v>2</v>
+      </c>
       <c r="V40">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="8:22" x14ac:dyDescent="0.3">
-      <c r="H41">
-        <v>3</v>
-      </c>
       <c r="I41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J41">
         <v>2</v>
@@ -1329,21 +1274,24 @@
       <c r="K41">
         <v>2</v>
       </c>
+      <c r="L41">
+        <v>2</v>
+      </c>
       <c r="V41">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="8:22" x14ac:dyDescent="0.3">
-      <c r="H42">
-        <v>3</v>
-      </c>
       <c r="I42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J42">
         <v>2</v>
       </c>
       <c r="K42">
+        <v>2</v>
+      </c>
+      <c r="L42">
         <v>2</v>
       </c>
       <c r="V42">
@@ -1352,10 +1300,10 @@
     </row>
     <row r="43" spans="8:22" x14ac:dyDescent="0.3">
       <c r="H43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J43">
         <v>2</v>
@@ -1363,6 +1311,9 @@
       <c r="K43">
         <v>2</v>
       </c>
+      <c r="L43">
+        <v>2</v>
+      </c>
       <c r="Q43">
         <v>1</v>
       </c>
@@ -1383,11 +1334,8 @@
       </c>
     </row>
     <row r="44" spans="8:22" x14ac:dyDescent="0.3">
-      <c r="H44">
-        <v>3</v>
-      </c>
       <c r="I44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J44">
         <v>2</v>
@@ -1395,6 +1343,9 @@
       <c r="K44">
         <v>2</v>
       </c>
+      <c r="L44">
+        <v>2</v>
+      </c>
       <c r="Q44">
         <v>1</v>
       </c>
@@ -1415,11 +1366,8 @@
       </c>
     </row>
     <row r="45" spans="8:22" x14ac:dyDescent="0.3">
-      <c r="H45">
-        <v>3</v>
-      </c>
       <c r="I45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J45">
         <v>2</v>
@@ -1427,13 +1375,13 @@
       <c r="K45">
         <v>2</v>
       </c>
+      <c r="L45">
+        <v>2</v>
+      </c>
     </row>
     <row r="46" spans="8:22" x14ac:dyDescent="0.3">
-      <c r="H46">
-        <v>3</v>
-      </c>
       <c r="I46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J46">
         <v>2</v>
@@ -1441,27 +1389,30 @@
       <c r="K46">
         <v>2</v>
       </c>
+      <c r="L46">
+        <v>2</v>
+      </c>
     </row>
     <row r="47" spans="8:22" x14ac:dyDescent="0.3">
-      <c r="H47">
-        <v>3</v>
-      </c>
       <c r="I47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J47">
         <v>2</v>
       </c>
       <c r="K47">
+        <v>2</v>
+      </c>
+      <c r="L47">
         <v>2</v>
       </c>
     </row>
     <row r="48" spans="8:22" x14ac:dyDescent="0.3">
       <c r="H48">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J48">
         <v>2</v>
@@ -1469,13 +1420,13 @@
       <c r="K48">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="H49">
-        <v>3</v>
-      </c>
+      <c r="L48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="8:12" x14ac:dyDescent="0.3">
       <c r="I49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J49">
         <v>2</v>
@@ -1483,13 +1434,13 @@
       <c r="K49">
         <v>2</v>
       </c>
-    </row>
-    <row r="50" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="H50">
-        <v>3</v>
-      </c>
+      <c r="L49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="8:12" x14ac:dyDescent="0.3">
       <c r="I50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J50">
         <v>2</v>
@@ -1497,13 +1448,13 @@
       <c r="K50">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="H51">
-        <v>3</v>
-      </c>
+      <c r="L50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="8:12" x14ac:dyDescent="0.3">
       <c r="I51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J51">
         <v>2</v>
@@ -1511,13 +1462,13 @@
       <c r="K51">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="H52">
-        <v>3</v>
-      </c>
+      <c r="L51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="8:12" x14ac:dyDescent="0.3">
       <c r="I52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J52">
         <v>2</v>
@@ -1525,13 +1476,16 @@
       <c r="K52">
         <v>2</v>
       </c>
-    </row>
-    <row r="53" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="L52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H53">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J53">
         <v>2</v>
@@ -1539,13 +1493,13 @@
       <c r="K53">
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="H54">
-        <v>3</v>
-      </c>
+      <c r="L53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="8:12" x14ac:dyDescent="0.3">
       <c r="I54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J54">
         <v>2</v>
@@ -1553,13 +1507,13 @@
       <c r="K54">
         <v>2</v>
       </c>
-    </row>
-    <row r="55" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="H55">
-        <v>3</v>
-      </c>
+      <c r="L54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="8:12" x14ac:dyDescent="0.3">
       <c r="I55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J55">
         <v>2</v>
@@ -1567,13 +1521,16 @@
       <c r="K55">
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="L55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H56">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J56">
         <v>2</v>
@@ -1581,13 +1538,13 @@
       <c r="K56">
         <v>2</v>
       </c>
-    </row>
-    <row r="57" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="H57">
-        <v>3</v>
-      </c>
+      <c r="L56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="8:12" x14ac:dyDescent="0.3">
       <c r="I57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J57">
         <v>2</v>
@@ -1595,13 +1552,13 @@
       <c r="K57">
         <v>2</v>
       </c>
-    </row>
-    <row r="58" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="H58">
-        <v>3</v>
-      </c>
+      <c r="L57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="8:12" x14ac:dyDescent="0.3">
       <c r="I58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J58">
         <v>2</v>
@@ -1609,13 +1566,16 @@
       <c r="K58">
         <v>2</v>
       </c>
-    </row>
-    <row r="59" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="L58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H59">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J59">
         <v>2</v>
@@ -1623,13 +1583,13 @@
       <c r="K59">
         <v>2</v>
       </c>
-    </row>
-    <row r="60" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="H60">
-        <v>3</v>
-      </c>
+      <c r="L59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="8:12" x14ac:dyDescent="0.3">
       <c r="I60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J60">
         <v>2</v>
@@ -1637,13 +1597,13 @@
       <c r="K60">
         <v>2</v>
       </c>
-    </row>
-    <row r="61" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="H61">
-        <v>3</v>
-      </c>
+      <c r="L60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="8:12" x14ac:dyDescent="0.3">
       <c r="I61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J61">
         <v>2</v>
@@ -1651,13 +1611,16 @@
       <c r="K61">
         <v>2</v>
       </c>
-    </row>
-    <row r="62" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="L61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H62">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J62">
         <v>2</v>
@@ -1665,13 +1628,13 @@
       <c r="K62">
         <v>2</v>
       </c>
-    </row>
-    <row r="63" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="H63">
-        <v>3</v>
-      </c>
+      <c r="L62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="8:12" x14ac:dyDescent="0.3">
       <c r="I63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J63">
         <v>2</v>
@@ -1679,13 +1642,13 @@
       <c r="K63">
         <v>2</v>
       </c>
-    </row>
-    <row r="64" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="H64">
-        <v>3</v>
-      </c>
+      <c r="L63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="8:12" x14ac:dyDescent="0.3">
       <c r="I64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J64">
         <v>2</v>
@@ -1693,13 +1656,16 @@
       <c r="K64">
         <v>2</v>
       </c>
-    </row>
-    <row r="65" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="L64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="3:12" x14ac:dyDescent="0.3">
       <c r="H65">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J65">
         <v>2</v>
@@ -1707,13 +1673,13 @@
       <c r="K65">
         <v>2</v>
       </c>
-    </row>
-    <row r="66" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="H66">
-        <v>3</v>
-      </c>
+      <c r="L65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="3:12" x14ac:dyDescent="0.3">
       <c r="I66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J66">
         <v>2</v>
@@ -1721,19 +1687,204 @@
       <c r="K66">
         <v>2</v>
       </c>
-    </row>
-    <row r="67" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="H67">
-        <v>3</v>
-      </c>
+      <c r="L66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="I67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J67">
         <v>2</v>
       </c>
       <c r="K67">
         <v>2</v>
+      </c>
+      <c r="L67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="H68">
+        <v>4</v>
+      </c>
+      <c r="I68">
+        <v>3</v>
+      </c>
+      <c r="J68">
+        <v>2</v>
+      </c>
+      <c r="K68">
+        <v>2</v>
+      </c>
+      <c r="L68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="I69">
+        <v>3</v>
+      </c>
+      <c r="J69">
+        <v>2</v>
+      </c>
+      <c r="K69">
+        <v>2</v>
+      </c>
+      <c r="L69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="I70">
+        <v>3</v>
+      </c>
+      <c r="J70">
+        <v>2</v>
+      </c>
+      <c r="K70">
+        <v>2</v>
+      </c>
+      <c r="L70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="G74">
+        <v>8</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C77">
+        <v>9</v>
+      </c>
+      <c r="D77">
+        <v>9</v>
+      </c>
+      <c r="E77">
+        <v>9</v>
+      </c>
+      <c r="F77">
+        <v>9</v>
+      </c>
+      <c r="G77">
+        <v>9</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\FossilHistory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2521014-F42D-41B0-BB41-0F0B1466AECB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4D47BF-163D-4897-BD88-E218A47C6355}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7950" xr2:uid="{27D6A6C2-2131-4514-A1D3-03A0EF2C7614}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>땅속</t>
   </si>
@@ -75,6 +75,10 @@
   </si>
   <si>
     <t>개구리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41 썩은연잎</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -451,18 +455,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F180BB6D-9196-420E-BBFA-7FDE3D0BE7D0}">
-  <dimension ref="A1:AJ77"/>
+  <dimension ref="A1:DW135"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="I31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18:AA135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="2" max="2" width="20.125" customWidth="1"/>
+    <col min="3" max="4" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:127" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>0</v>
       </c>
@@ -471,7 +476,7 @@
       </c>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:127" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -480,7 +485,7 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:127" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -488,11 +493,8 @@
         <v>6</v>
       </c>
       <c r="I3" s="2"/>
-      <c r="J3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:127" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -500,32 +502,23 @@
         <v>7</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-      <c r="R4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:127" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
       <c r="I5" s="2"/>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="AI5">
-        <v>1</v>
-      </c>
-      <c r="AJ5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="Q5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:127" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -533,14 +526,167 @@
         <v>12</v>
       </c>
       <c r="I6" s="2"/>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>4</v>
+      </c>
+      <c r="Z6">
+        <v>4</v>
+      </c>
+      <c r="AC6">
+        <v>4</v>
+      </c>
+      <c r="AF6">
+        <v>41</v>
+      </c>
       <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="AN6">
+        <v>4</v>
+      </c>
+      <c r="AQ6">
+        <v>41</v>
+      </c>
+      <c r="AS6">
+        <v>4</v>
+      </c>
+      <c r="AV6">
+        <v>4</v>
+      </c>
+      <c r="AY6">
+        <v>4</v>
+      </c>
+      <c r="BB6">
+        <v>4</v>
+      </c>
+      <c r="BE6">
+        <v>4</v>
+      </c>
+      <c r="BH6">
+        <v>4</v>
+      </c>
+      <c r="BK6">
+        <v>1</v>
+      </c>
+      <c r="BL6">
+        <v>1</v>
+      </c>
+      <c r="BM6">
+        <v>1</v>
+      </c>
+      <c r="BN6">
+        <v>1</v>
+      </c>
+      <c r="BO6">
+        <v>1</v>
+      </c>
+      <c r="BP6">
+        <v>1</v>
+      </c>
+      <c r="BQ6">
+        <v>1</v>
+      </c>
+      <c r="BT6">
+        <v>4</v>
+      </c>
+      <c r="BW6">
+        <v>4</v>
+      </c>
+      <c r="BZ6">
+        <v>4</v>
+      </c>
+      <c r="CB6">
+        <v>4</v>
+      </c>
+      <c r="CE6">
+        <v>41</v>
+      </c>
+      <c r="CG6">
+        <v>4</v>
+      </c>
+      <c r="CJ6">
+        <v>41</v>
+      </c>
+      <c r="CL6">
+        <v>4</v>
+      </c>
+      <c r="CN6">
+        <v>4</v>
+      </c>
+      <c r="CP6">
+        <v>4</v>
+      </c>
+      <c r="CR6">
+        <v>4</v>
+      </c>
+      <c r="CU6">
+        <v>4</v>
+      </c>
+      <c r="CX6">
+        <v>4</v>
+      </c>
+      <c r="CZ6">
+        <v>41</v>
+      </c>
+      <c r="DC6">
+        <v>4</v>
+      </c>
+      <c r="DE6">
+        <v>4</v>
+      </c>
+      <c r="DH6">
+        <v>4</v>
+      </c>
+      <c r="DJ6">
+        <v>1</v>
+      </c>
+      <c r="DM6">
+        <v>41</v>
+      </c>
+      <c r="DN6">
+        <v>4</v>
+      </c>
+      <c r="DP6">
+        <v>4</v>
+      </c>
+      <c r="DQ6">
+        <v>4</v>
+      </c>
+      <c r="DS6">
+        <v>1</v>
+      </c>
+      <c r="DT6">
+        <v>1</v>
+      </c>
+      <c r="DU6">
+        <v>1</v>
+      </c>
+      <c r="DV6">
+        <v>1</v>
+      </c>
+      <c r="DW6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:127" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -548,14 +694,362 @@
         <v>2</v>
       </c>
       <c r="I7" s="2"/>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="M7">
+        <v>3</v>
+      </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>3</v>
+      </c>
+      <c r="V7">
+        <v>3</v>
+      </c>
+      <c r="W7">
+        <v>3</v>
+      </c>
+      <c r="X7">
+        <v>3</v>
+      </c>
+      <c r="Y7">
+        <v>3</v>
+      </c>
+      <c r="Z7">
+        <v>3</v>
+      </c>
+      <c r="AA7">
+        <v>3</v>
+      </c>
+      <c r="AB7">
+        <v>3</v>
+      </c>
+      <c r="AC7">
+        <v>3</v>
+      </c>
+      <c r="AD7">
+        <v>3</v>
+      </c>
+      <c r="AE7">
+        <v>3</v>
+      </c>
+      <c r="AF7">
+        <v>3</v>
+      </c>
+      <c r="AG7">
+        <v>3</v>
+      </c>
+      <c r="AH7">
+        <v>3</v>
+      </c>
       <c r="AI7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="AK7">
+        <v>3</v>
+      </c>
+      <c r="AL7">
+        <v>3</v>
+      </c>
+      <c r="AM7">
+        <v>3</v>
+      </c>
+      <c r="AN7">
+        <v>3</v>
+      </c>
+      <c r="AO7">
+        <v>3</v>
+      </c>
+      <c r="AP7">
+        <v>3</v>
+      </c>
+      <c r="AQ7">
+        <v>3</v>
+      </c>
+      <c r="AR7">
+        <v>3</v>
+      </c>
+      <c r="AS7">
+        <v>3</v>
+      </c>
+      <c r="AT7">
+        <v>3</v>
+      </c>
+      <c r="AU7">
+        <v>3</v>
+      </c>
+      <c r="AV7">
+        <v>3</v>
+      </c>
+      <c r="AW7">
+        <v>3</v>
+      </c>
+      <c r="AX7">
+        <v>3</v>
+      </c>
+      <c r="AY7">
+        <v>3</v>
+      </c>
+      <c r="AZ7">
+        <v>3</v>
+      </c>
+      <c r="BA7">
+        <v>3</v>
+      </c>
+      <c r="BB7">
+        <v>3</v>
+      </c>
+      <c r="BC7">
+        <v>3</v>
+      </c>
+      <c r="BD7">
+        <v>3</v>
+      </c>
+      <c r="BE7">
+        <v>3</v>
+      </c>
+      <c r="BF7">
+        <v>3</v>
+      </c>
+      <c r="BG7">
+        <v>3</v>
+      </c>
+      <c r="BH7">
+        <v>3</v>
+      </c>
+      <c r="BI7">
+        <v>3</v>
+      </c>
+      <c r="BJ7">
+        <v>3</v>
+      </c>
+      <c r="BK7">
+        <v>0</v>
+      </c>
+      <c r="BL7">
+        <v>0</v>
+      </c>
+      <c r="BM7">
+        <v>0</v>
+      </c>
+      <c r="BN7">
+        <v>0</v>
+      </c>
+      <c r="BO7">
+        <v>0</v>
+      </c>
+      <c r="BP7">
+        <v>0</v>
+      </c>
+      <c r="BQ7">
+        <v>0</v>
+      </c>
+      <c r="BR7">
+        <v>3</v>
+      </c>
+      <c r="BS7">
+        <v>3</v>
+      </c>
+      <c r="BT7">
+        <v>3</v>
+      </c>
+      <c r="BU7">
+        <v>3</v>
+      </c>
+      <c r="BV7">
+        <v>3</v>
+      </c>
+      <c r="BW7">
+        <v>3</v>
+      </c>
+      <c r="BX7">
+        <v>3</v>
+      </c>
+      <c r="BY7">
+        <v>3</v>
+      </c>
+      <c r="BZ7">
+        <v>3</v>
+      </c>
+      <c r="CA7">
+        <v>3</v>
+      </c>
+      <c r="CB7">
+        <v>3</v>
+      </c>
+      <c r="CC7">
+        <v>3</v>
+      </c>
+      <c r="CD7">
+        <v>3</v>
+      </c>
+      <c r="CE7">
+        <v>3</v>
+      </c>
+      <c r="CF7">
+        <v>3</v>
+      </c>
+      <c r="CG7">
+        <v>3</v>
+      </c>
+      <c r="CH7">
+        <v>3</v>
+      </c>
+      <c r="CI7">
+        <v>3</v>
+      </c>
+      <c r="CJ7">
+        <v>3</v>
+      </c>
+      <c r="CK7">
+        <v>3</v>
+      </c>
+      <c r="CL7">
+        <v>3</v>
+      </c>
+      <c r="CM7">
+        <v>3</v>
+      </c>
+      <c r="CN7">
+        <v>3</v>
+      </c>
+      <c r="CO7">
+        <v>3</v>
+      </c>
+      <c r="CP7">
+        <v>3</v>
+      </c>
+      <c r="CQ7">
+        <v>3</v>
+      </c>
+      <c r="CR7">
+        <v>3</v>
+      </c>
+      <c r="CS7">
+        <v>3</v>
+      </c>
+      <c r="CT7">
+        <v>3</v>
+      </c>
+      <c r="CU7">
+        <v>3</v>
+      </c>
+      <c r="CV7">
+        <v>3</v>
+      </c>
+      <c r="CW7">
+        <v>3</v>
+      </c>
+      <c r="CX7">
+        <v>3</v>
+      </c>
+      <c r="CY7">
+        <v>3</v>
+      </c>
+      <c r="CZ7">
+        <v>3</v>
+      </c>
+      <c r="DA7">
+        <v>3</v>
+      </c>
+      <c r="DB7">
+        <v>3</v>
+      </c>
+      <c r="DC7">
+        <v>3</v>
+      </c>
+      <c r="DD7">
+        <v>3</v>
+      </c>
+      <c r="DE7">
+        <v>3</v>
+      </c>
+      <c r="DF7">
+        <v>3</v>
+      </c>
+      <c r="DG7">
+        <v>3</v>
+      </c>
+      <c r="DH7">
+        <v>3</v>
+      </c>
+      <c r="DI7">
+        <v>3</v>
+      </c>
+      <c r="DJ7">
+        <v>0</v>
+      </c>
+      <c r="DK7">
+        <v>3</v>
+      </c>
+      <c r="DL7">
+        <v>3</v>
+      </c>
+      <c r="DM7">
+        <v>3</v>
+      </c>
+      <c r="DN7">
+        <v>3</v>
+      </c>
+      <c r="DO7">
+        <v>3</v>
+      </c>
+      <c r="DP7">
+        <v>3</v>
+      </c>
+      <c r="DQ7">
+        <v>3</v>
+      </c>
+      <c r="DR7">
+        <v>3</v>
+      </c>
+      <c r="DS7">
+        <v>0</v>
+      </c>
+      <c r="DT7">
+        <v>0</v>
+      </c>
+      <c r="DU7">
+        <v>0</v>
+      </c>
+      <c r="DV7">
+        <v>0</v>
+      </c>
+      <c r="DW7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:127" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -563,41 +1057,362 @@
         <v>3</v>
       </c>
       <c r="I8" s="2"/>
+      <c r="J8">
+        <v>2</v>
+      </c>
       <c r="K8">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O8">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V8">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="W8">
+        <v>2</v>
+      </c>
+      <c r="X8">
+        <v>2</v>
+      </c>
+      <c r="Y8">
+        <v>2</v>
       </c>
       <c r="Z8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC8">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="AD8">
+        <v>2</v>
+      </c>
+      <c r="AE8">
+        <v>2</v>
+      </c>
+      <c r="AF8">
+        <v>2</v>
+      </c>
+      <c r="AG8">
+        <v>2</v>
+      </c>
+      <c r="AH8">
+        <v>2</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="AK8">
+        <v>2</v>
+      </c>
+      <c r="AL8">
+        <v>2</v>
+      </c>
+      <c r="AM8">
+        <v>2</v>
+      </c>
+      <c r="AN8">
+        <v>2</v>
+      </c>
+      <c r="AO8">
+        <v>2</v>
+      </c>
+      <c r="AP8">
+        <v>2</v>
+      </c>
+      <c r="AQ8">
+        <v>2</v>
+      </c>
+      <c r="AR8">
+        <v>2</v>
+      </c>
+      <c r="AS8">
+        <v>2</v>
+      </c>
+      <c r="AT8">
+        <v>2</v>
+      </c>
+      <c r="AU8">
+        <v>2</v>
+      </c>
+      <c r="AV8">
+        <v>2</v>
+      </c>
+      <c r="AW8">
+        <v>2</v>
+      </c>
+      <c r="AX8">
+        <v>2</v>
+      </c>
+      <c r="AY8">
+        <v>2</v>
+      </c>
+      <c r="AZ8">
+        <v>2</v>
+      </c>
+      <c r="BA8">
+        <v>2</v>
+      </c>
+      <c r="BB8">
+        <v>2</v>
+      </c>
+      <c r="BC8">
+        <v>2</v>
+      </c>
+      <c r="BD8">
+        <v>2</v>
+      </c>
+      <c r="BE8">
+        <v>2</v>
+      </c>
+      <c r="BF8">
+        <v>2</v>
+      </c>
+      <c r="BG8">
+        <v>2</v>
+      </c>
+      <c r="BH8">
+        <v>2</v>
+      </c>
+      <c r="BI8">
+        <v>2</v>
+      </c>
+      <c r="BJ8">
+        <v>2</v>
+      </c>
+      <c r="BK8">
+        <v>0</v>
+      </c>
+      <c r="BL8">
+        <v>0</v>
+      </c>
+      <c r="BM8">
+        <v>0</v>
+      </c>
+      <c r="BN8">
+        <v>0</v>
+      </c>
+      <c r="BO8">
+        <v>0</v>
+      </c>
+      <c r="BP8">
+        <v>0</v>
+      </c>
+      <c r="BQ8">
+        <v>0</v>
+      </c>
+      <c r="BR8">
+        <v>2</v>
+      </c>
+      <c r="BS8">
+        <v>2</v>
+      </c>
+      <c r="BT8">
+        <v>2</v>
+      </c>
+      <c r="BU8">
+        <v>2</v>
+      </c>
+      <c r="BV8">
+        <v>2</v>
+      </c>
+      <c r="BW8">
+        <v>2</v>
+      </c>
+      <c r="BX8">
+        <v>2</v>
+      </c>
+      <c r="BY8">
+        <v>2</v>
+      </c>
+      <c r="BZ8">
+        <v>2</v>
+      </c>
+      <c r="CA8">
+        <v>2</v>
+      </c>
+      <c r="CB8">
+        <v>2</v>
+      </c>
+      <c r="CC8">
+        <v>2</v>
+      </c>
+      <c r="CD8">
+        <v>2</v>
+      </c>
+      <c r="CE8">
+        <v>2</v>
+      </c>
+      <c r="CF8">
+        <v>2</v>
+      </c>
+      <c r="CG8">
+        <v>2</v>
+      </c>
+      <c r="CH8">
+        <v>2</v>
+      </c>
+      <c r="CI8">
+        <v>2</v>
+      </c>
+      <c r="CJ8">
+        <v>2</v>
+      </c>
+      <c r="CK8">
+        <v>2</v>
+      </c>
+      <c r="CL8">
+        <v>2</v>
+      </c>
+      <c r="CM8">
+        <v>2</v>
+      </c>
+      <c r="CN8">
+        <v>2</v>
+      </c>
+      <c r="CO8">
+        <v>2</v>
+      </c>
+      <c r="CP8">
+        <v>2</v>
+      </c>
+      <c r="CQ8">
+        <v>2</v>
+      </c>
+      <c r="CR8">
+        <v>2</v>
+      </c>
+      <c r="CS8">
+        <v>2</v>
+      </c>
+      <c r="CT8">
+        <v>2</v>
+      </c>
+      <c r="CU8">
+        <v>2</v>
+      </c>
+      <c r="CV8">
+        <v>2</v>
+      </c>
+      <c r="CW8">
+        <v>2</v>
+      </c>
+      <c r="CX8">
+        <v>2</v>
+      </c>
+      <c r="CY8">
+        <v>2</v>
+      </c>
+      <c r="CZ8">
+        <v>2</v>
+      </c>
+      <c r="DA8">
+        <v>2</v>
+      </c>
+      <c r="DB8">
+        <v>2</v>
+      </c>
+      <c r="DC8">
+        <v>2</v>
+      </c>
+      <c r="DD8">
+        <v>2</v>
+      </c>
+      <c r="DE8">
+        <v>2</v>
+      </c>
+      <c r="DF8">
+        <v>2</v>
+      </c>
+      <c r="DG8">
+        <v>2</v>
+      </c>
+      <c r="DH8">
+        <v>2</v>
+      </c>
+      <c r="DI8">
+        <v>2</v>
+      </c>
+      <c r="DJ8">
+        <v>0</v>
+      </c>
+      <c r="DK8">
+        <v>2</v>
+      </c>
+      <c r="DL8">
+        <v>2</v>
+      </c>
+      <c r="DM8">
+        <v>2</v>
+      </c>
+      <c r="DN8">
+        <v>2</v>
+      </c>
+      <c r="DO8">
+        <v>2</v>
+      </c>
+      <c r="DP8">
+        <v>2</v>
+      </c>
+      <c r="DQ8">
+        <v>2</v>
+      </c>
+      <c r="DR8">
+        <v>2</v>
+      </c>
+      <c r="DS8">
+        <v>0</v>
+      </c>
+      <c r="DT8">
+        <v>0</v>
+      </c>
+      <c r="DU8">
+        <v>0</v>
+      </c>
+      <c r="DV8">
+        <v>0</v>
+      </c>
+      <c r="DW8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:127" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -606,61 +1421,361 @@
       </c>
       <c r="I9" s="2"/>
       <c r="J9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
       <c r="R9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W9">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="X9">
+        <v>2</v>
+      </c>
+      <c r="Y9">
+        <v>2</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="AD9">
+        <v>2</v>
+      </c>
+      <c r="AE9">
+        <v>2</v>
+      </c>
+      <c r="AF9">
+        <v>2</v>
+      </c>
+      <c r="AG9">
+        <v>2</v>
+      </c>
+      <c r="AH9">
+        <v>2</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="AK9">
+        <v>2</v>
+      </c>
+      <c r="AL9">
+        <v>2</v>
+      </c>
+      <c r="AM9">
+        <v>2</v>
+      </c>
+      <c r="AN9">
+        <v>2</v>
+      </c>
+      <c r="AO9">
+        <v>2</v>
+      </c>
+      <c r="AP9">
+        <v>2</v>
+      </c>
+      <c r="AQ9">
+        <v>2</v>
+      </c>
+      <c r="AR9">
+        <v>2</v>
+      </c>
+      <c r="AS9">
+        <v>2</v>
+      </c>
+      <c r="AT9">
+        <v>2</v>
+      </c>
+      <c r="AU9">
+        <v>2</v>
+      </c>
+      <c r="AV9">
+        <v>2</v>
+      </c>
+      <c r="AW9">
+        <v>2</v>
+      </c>
+      <c r="AX9">
+        <v>2</v>
+      </c>
+      <c r="AY9">
+        <v>2</v>
+      </c>
+      <c r="AZ9">
+        <v>2</v>
+      </c>
+      <c r="BA9">
+        <v>2</v>
+      </c>
+      <c r="BB9">
+        <v>2</v>
+      </c>
+      <c r="BC9">
+        <v>2</v>
+      </c>
+      <c r="BD9">
+        <v>2</v>
+      </c>
+      <c r="BE9">
+        <v>2</v>
+      </c>
+      <c r="BF9">
+        <v>2</v>
+      </c>
+      <c r="BG9">
+        <v>2</v>
+      </c>
+      <c r="BH9">
+        <v>2</v>
+      </c>
+      <c r="BI9">
+        <v>2</v>
+      </c>
+      <c r="BJ9">
+        <v>2</v>
+      </c>
+      <c r="BK9">
+        <v>0</v>
+      </c>
+      <c r="BL9">
+        <v>0</v>
+      </c>
+      <c r="BM9">
+        <v>0</v>
+      </c>
+      <c r="BN9">
+        <v>0</v>
+      </c>
+      <c r="BO9">
+        <v>0</v>
+      </c>
+      <c r="BP9">
+        <v>0</v>
+      </c>
+      <c r="BQ9">
+        <v>0</v>
+      </c>
+      <c r="BR9">
+        <v>2</v>
+      </c>
+      <c r="BS9">
+        <v>2</v>
+      </c>
+      <c r="BT9">
+        <v>2</v>
+      </c>
+      <c r="BU9">
+        <v>2</v>
+      </c>
+      <c r="BV9">
+        <v>2</v>
+      </c>
+      <c r="BW9">
+        <v>2</v>
+      </c>
+      <c r="BX9">
+        <v>2</v>
+      </c>
+      <c r="BY9">
+        <v>2</v>
+      </c>
+      <c r="BZ9">
+        <v>2</v>
+      </c>
+      <c r="CA9">
+        <v>2</v>
+      </c>
+      <c r="CB9">
+        <v>2</v>
+      </c>
+      <c r="CC9">
+        <v>2</v>
+      </c>
+      <c r="CD9">
+        <v>2</v>
+      </c>
+      <c r="CE9">
+        <v>2</v>
+      </c>
+      <c r="CF9">
+        <v>2</v>
+      </c>
+      <c r="CG9">
+        <v>2</v>
+      </c>
+      <c r="CH9">
+        <v>2</v>
+      </c>
+      <c r="CI9">
+        <v>2</v>
+      </c>
+      <c r="CJ9">
+        <v>2</v>
+      </c>
+      <c r="CK9">
+        <v>2</v>
+      </c>
+      <c r="CL9">
+        <v>2</v>
+      </c>
+      <c r="CM9">
+        <v>2</v>
+      </c>
+      <c r="CN9">
+        <v>2</v>
+      </c>
+      <c r="CO9">
+        <v>2</v>
+      </c>
+      <c r="CP9">
+        <v>2</v>
+      </c>
+      <c r="CQ9">
+        <v>2</v>
+      </c>
+      <c r="CR9">
+        <v>2</v>
+      </c>
+      <c r="CS9">
+        <v>2</v>
+      </c>
+      <c r="CT9">
+        <v>2</v>
+      </c>
+      <c r="CU9">
+        <v>2</v>
+      </c>
+      <c r="CV9">
+        <v>2</v>
+      </c>
+      <c r="CW9">
+        <v>2</v>
+      </c>
+      <c r="CX9">
+        <v>2</v>
+      </c>
+      <c r="CY9">
+        <v>2</v>
+      </c>
+      <c r="CZ9">
+        <v>2</v>
+      </c>
+      <c r="DA9">
+        <v>2</v>
+      </c>
+      <c r="DB9">
+        <v>2</v>
+      </c>
+      <c r="DC9">
+        <v>2</v>
+      </c>
+      <c r="DD9">
+        <v>2</v>
+      </c>
+      <c r="DE9">
+        <v>2</v>
+      </c>
+      <c r="DF9">
+        <v>2</v>
+      </c>
+      <c r="DG9">
+        <v>2</v>
+      </c>
+      <c r="DH9">
+        <v>2</v>
+      </c>
+      <c r="DI9">
+        <v>2</v>
+      </c>
+      <c r="DJ9">
+        <v>0</v>
+      </c>
+      <c r="DK9">
+        <v>2</v>
+      </c>
+      <c r="DL9">
+        <v>2</v>
+      </c>
+      <c r="DM9">
+        <v>2</v>
+      </c>
+      <c r="DN9">
+        <v>2</v>
+      </c>
+      <c r="DO9">
+        <v>2</v>
+      </c>
+      <c r="DP9">
+        <v>2</v>
+      </c>
+      <c r="DQ9">
+        <v>2</v>
+      </c>
+      <c r="DR9">
+        <v>2</v>
+      </c>
+      <c r="DS9">
+        <v>0</v>
+      </c>
+      <c r="DT9">
+        <v>0</v>
+      </c>
+      <c r="DU9">
+        <v>0</v>
+      </c>
+      <c r="DV9">
+        <v>0</v>
+      </c>
+      <c r="DW9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:127" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -669,28 +1784,28 @@
       </c>
       <c r="I10" s="2"/>
       <c r="J10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -702,55 +1817,328 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="AK10">
+        <v>2</v>
+      </c>
+      <c r="AL10">
+        <v>2</v>
+      </c>
+      <c r="AM10">
+        <v>2</v>
+      </c>
+      <c r="AN10">
+        <v>2</v>
+      </c>
+      <c r="AO10">
+        <v>2</v>
+      </c>
+      <c r="AP10">
+        <v>2</v>
+      </c>
+      <c r="AQ10">
+        <v>2</v>
+      </c>
+      <c r="AR10">
+        <v>2</v>
+      </c>
+      <c r="AS10">
+        <v>2</v>
+      </c>
+      <c r="AT10">
+        <v>2</v>
+      </c>
+      <c r="AU10">
+        <v>2</v>
+      </c>
+      <c r="AV10">
+        <v>2</v>
+      </c>
+      <c r="AW10">
+        <v>2</v>
+      </c>
+      <c r="AX10">
+        <v>2</v>
+      </c>
+      <c r="AY10">
+        <v>2</v>
+      </c>
+      <c r="AZ10">
+        <v>2</v>
+      </c>
+      <c r="BA10">
+        <v>2</v>
+      </c>
+      <c r="BB10">
+        <v>2</v>
+      </c>
+      <c r="BC10">
+        <v>2</v>
+      </c>
+      <c r="BD10">
+        <v>2</v>
+      </c>
+      <c r="BE10">
+        <v>2</v>
+      </c>
+      <c r="BF10">
+        <v>2</v>
+      </c>
+      <c r="BG10">
+        <v>2</v>
+      </c>
+      <c r="BH10">
+        <v>2</v>
+      </c>
+      <c r="BI10">
+        <v>2</v>
+      </c>
+      <c r="BJ10">
+        <v>2</v>
+      </c>
+      <c r="BK10">
+        <v>0</v>
+      </c>
+      <c r="BL10">
+        <v>0</v>
+      </c>
+      <c r="BM10">
+        <v>0</v>
+      </c>
+      <c r="BN10">
+        <v>0</v>
+      </c>
+      <c r="BO10">
+        <v>0</v>
+      </c>
+      <c r="BP10">
+        <v>0</v>
+      </c>
+      <c r="BQ10">
+        <v>0</v>
+      </c>
+      <c r="BR10">
+        <v>2</v>
+      </c>
+      <c r="BS10">
+        <v>2</v>
+      </c>
+      <c r="BT10">
+        <v>2</v>
+      </c>
+      <c r="BU10">
+        <v>2</v>
+      </c>
+      <c r="BV10">
+        <v>2</v>
+      </c>
+      <c r="BW10">
+        <v>2</v>
+      </c>
+      <c r="BX10">
+        <v>2</v>
+      </c>
+      <c r="BY10">
+        <v>2</v>
+      </c>
+      <c r="BZ10">
+        <v>2</v>
+      </c>
+      <c r="CA10">
+        <v>2</v>
+      </c>
+      <c r="CB10">
+        <v>2</v>
+      </c>
+      <c r="CC10">
+        <v>2</v>
+      </c>
+      <c r="CD10">
+        <v>2</v>
+      </c>
+      <c r="CE10">
+        <v>2</v>
+      </c>
+      <c r="CF10">
+        <v>2</v>
+      </c>
+      <c r="CG10">
+        <v>2</v>
+      </c>
+      <c r="CH10">
+        <v>2</v>
+      </c>
+      <c r="CI10">
+        <v>2</v>
+      </c>
+      <c r="CJ10">
+        <v>2</v>
+      </c>
+      <c r="CK10">
+        <v>2</v>
+      </c>
+      <c r="CL10">
+        <v>2</v>
+      </c>
+      <c r="CM10">
+        <v>2</v>
+      </c>
+      <c r="CN10">
+        <v>2</v>
+      </c>
+      <c r="CO10">
+        <v>2</v>
+      </c>
+      <c r="CP10">
+        <v>2</v>
+      </c>
+      <c r="CQ10">
+        <v>2</v>
+      </c>
+      <c r="CR10">
+        <v>2</v>
+      </c>
+      <c r="CS10">
+        <v>2</v>
+      </c>
+      <c r="CT10">
+        <v>2</v>
+      </c>
+      <c r="CU10">
+        <v>2</v>
+      </c>
+      <c r="CV10">
+        <v>2</v>
+      </c>
+      <c r="CW10">
+        <v>2</v>
+      </c>
+      <c r="CX10">
+        <v>2</v>
+      </c>
+      <c r="CY10">
+        <v>2</v>
+      </c>
+      <c r="CZ10">
+        <v>2</v>
+      </c>
+      <c r="DA10">
+        <v>2</v>
+      </c>
+      <c r="DB10">
+        <v>2</v>
+      </c>
+      <c r="DC10">
+        <v>2</v>
+      </c>
+      <c r="DD10">
+        <v>2</v>
+      </c>
+      <c r="DE10">
+        <v>2</v>
+      </c>
+      <c r="DF10">
+        <v>2</v>
+      </c>
+      <c r="DG10">
+        <v>2</v>
+      </c>
+      <c r="DH10">
+        <v>2</v>
+      </c>
+      <c r="DI10">
+        <v>2</v>
+      </c>
+      <c r="DJ10">
+        <v>0</v>
+      </c>
+      <c r="DK10">
+        <v>2</v>
+      </c>
+      <c r="DL10">
+        <v>2</v>
+      </c>
+      <c r="DM10">
+        <v>2</v>
+      </c>
+      <c r="DN10">
+        <v>2</v>
+      </c>
+      <c r="DO10">
+        <v>2</v>
+      </c>
+      <c r="DP10">
+        <v>2</v>
+      </c>
+      <c r="DQ10">
+        <v>2</v>
+      </c>
+      <c r="DR10">
+        <v>2</v>
+      </c>
+      <c r="DS10">
+        <v>0</v>
+      </c>
+      <c r="DT10">
+        <v>0</v>
+      </c>
+      <c r="DU10">
+        <v>0</v>
+      </c>
+      <c r="DV10">
+        <v>0</v>
+      </c>
+      <c r="DW10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:127" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -770,7 +2158,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:127" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -778,7 +2166,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:127" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -786,7 +2174,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:127" x14ac:dyDescent="0.3">
       <c r="H15">
         <v>3</v>
       </c>
@@ -800,7 +2188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:127" x14ac:dyDescent="0.3">
       <c r="H16">
         <v>3</v>
       </c>
@@ -814,7 +2202,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:27" x14ac:dyDescent="0.3">
       <c r="H17">
         <v>3</v>
       </c>
@@ -828,7 +2216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="7:27" x14ac:dyDescent="0.3">
       <c r="I18">
         <v>3</v>
       </c>
@@ -841,8 +2229,20 @@
       <c r="L18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="7:23" x14ac:dyDescent="0.3">
+      <c r="X18">
+        <v>3</v>
+      </c>
+      <c r="Y18">
+        <v>2</v>
+      </c>
+      <c r="Z18">
+        <v>2</v>
+      </c>
+      <c r="AA18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="7:27" x14ac:dyDescent="0.3">
       <c r="I19">
         <v>3</v>
       </c>
@@ -855,8 +2255,20 @@
       <c r="L19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="7:23" x14ac:dyDescent="0.3">
+      <c r="X19">
+        <v>3</v>
+      </c>
+      <c r="Y19">
+        <v>2</v>
+      </c>
+      <c r="Z19">
+        <v>2</v>
+      </c>
+      <c r="AA19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="7:27" x14ac:dyDescent="0.3">
       <c r="I20">
         <v>3</v>
       </c>
@@ -869,8 +2281,20 @@
       <c r="L20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="7:23" x14ac:dyDescent="0.3">
+      <c r="X20">
+        <v>3</v>
+      </c>
+      <c r="Y20">
+        <v>2</v>
+      </c>
+      <c r="Z20">
+        <v>2</v>
+      </c>
+      <c r="AA20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="7:27" x14ac:dyDescent="0.3">
       <c r="I21">
         <v>3</v>
       </c>
@@ -883,8 +2307,20 @@
       <c r="L21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="7:23" x14ac:dyDescent="0.3">
+      <c r="X21">
+        <v>3</v>
+      </c>
+      <c r="Y21">
+        <v>2</v>
+      </c>
+      <c r="Z21">
+        <v>2</v>
+      </c>
+      <c r="AA21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="7:27" x14ac:dyDescent="0.3">
       <c r="I22">
         <v>3</v>
       </c>
@@ -897,8 +2333,20 @@
       <c r="L22">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="7:23" x14ac:dyDescent="0.3">
+      <c r="X22">
+        <v>3</v>
+      </c>
+      <c r="Y22">
+        <v>2</v>
+      </c>
+      <c r="Z22">
+        <v>2</v>
+      </c>
+      <c r="AA22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="7:27" x14ac:dyDescent="0.3">
       <c r="H23">
         <v>1</v>
       </c>
@@ -914,8 +2362,23 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="7:23" x14ac:dyDescent="0.3">
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="7:27" x14ac:dyDescent="0.3">
       <c r="H24">
         <v>1</v>
       </c>
@@ -931,8 +2394,23 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="7:23" x14ac:dyDescent="0.3">
+      <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="7:27" x14ac:dyDescent="0.3">
       <c r="G25">
         <v>7</v>
       </c>
@@ -951,8 +2429,26 @@
       <c r="L25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="7:23" x14ac:dyDescent="0.3">
+      <c r="V25">
+        <v>7</v>
+      </c>
+      <c r="W25">
+        <v>1</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="7:27" x14ac:dyDescent="0.3">
       <c r="H26">
         <v>1</v>
       </c>
@@ -968,8 +2464,23 @@
       <c r="L26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="7:23" x14ac:dyDescent="0.3">
+      <c r="W26">
+        <v>1</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="7:27" x14ac:dyDescent="0.3">
       <c r="H27">
         <v>1</v>
       </c>
@@ -985,8 +2496,23 @@
       <c r="L27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="7:23" x14ac:dyDescent="0.3">
+      <c r="W27">
+        <v>1</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="7:27" x14ac:dyDescent="0.3">
       <c r="H28">
         <v>1</v>
       </c>
@@ -1002,17 +2528,23 @@
       <c r="L28">
         <v>0</v>
       </c>
-      <c r="U28">
-        <v>1</v>
-      </c>
-      <c r="V28">
-        <v>0</v>
-      </c>
       <c r="W28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="7:23" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="7:27" x14ac:dyDescent="0.3">
       <c r="I29">
         <v>3</v>
       </c>
@@ -1025,17 +2557,20 @@
       <c r="L29">
         <v>2</v>
       </c>
-      <c r="T29">
-        <v>1</v>
-      </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="7:23" x14ac:dyDescent="0.3">
+      <c r="X29">
+        <v>3</v>
+      </c>
+      <c r="Y29">
+        <v>2</v>
+      </c>
+      <c r="Z29">
+        <v>2</v>
+      </c>
+      <c r="AA29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="7:27" x14ac:dyDescent="0.3">
       <c r="I30">
         <v>3</v>
       </c>
@@ -1048,17 +2583,20 @@
       <c r="L30">
         <v>2</v>
       </c>
-      <c r="T30">
-        <v>1</v>
-      </c>
-      <c r="U30">
-        <v>0</v>
-      </c>
-      <c r="V30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="7:23" x14ac:dyDescent="0.3">
+      <c r="X30">
+        <v>3</v>
+      </c>
+      <c r="Y30">
+        <v>2</v>
+      </c>
+      <c r="Z30">
+        <v>2</v>
+      </c>
+      <c r="AA30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="7:27" x14ac:dyDescent="0.3">
       <c r="I31">
         <v>3</v>
       </c>
@@ -1071,14 +2609,20 @@
       <c r="L31">
         <v>2</v>
       </c>
-      <c r="U31">
-        <v>1</v>
-      </c>
-      <c r="V31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="7:23" x14ac:dyDescent="0.3">
+      <c r="X31">
+        <v>3</v>
+      </c>
+      <c r="Y31">
+        <v>2</v>
+      </c>
+      <c r="Z31">
+        <v>2</v>
+      </c>
+      <c r="AA31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="7:27" x14ac:dyDescent="0.3">
       <c r="H32">
         <v>4</v>
       </c>
@@ -1094,11 +2638,23 @@
       <c r="L32">
         <v>2</v>
       </c>
-      <c r="V32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="8:22" x14ac:dyDescent="0.3">
+      <c r="W32">
+        <v>4</v>
+      </c>
+      <c r="X32">
+        <v>3</v>
+      </c>
+      <c r="Y32">
+        <v>2</v>
+      </c>
+      <c r="Z32">
+        <v>2</v>
+      </c>
+      <c r="AA32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="8:27" x14ac:dyDescent="0.3">
       <c r="I33">
         <v>3</v>
       </c>
@@ -1111,11 +2667,20 @@
       <c r="L33">
         <v>2</v>
       </c>
-      <c r="V33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="8:22" x14ac:dyDescent="0.3">
+      <c r="X33">
+        <v>3</v>
+      </c>
+      <c r="Y33">
+        <v>2</v>
+      </c>
+      <c r="Z33">
+        <v>2</v>
+      </c>
+      <c r="AA33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="8:27" x14ac:dyDescent="0.3">
       <c r="H34">
         <v>4</v>
       </c>
@@ -1131,17 +2696,23 @@
       <c r="L34">
         <v>2</v>
       </c>
-      <c r="T34">
-        <v>1</v>
-      </c>
-      <c r="U34">
-        <v>0</v>
-      </c>
-      <c r="V34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="8:22" x14ac:dyDescent="0.3">
+      <c r="W34">
+        <v>4</v>
+      </c>
+      <c r="X34">
+        <v>3</v>
+      </c>
+      <c r="Y34">
+        <v>2</v>
+      </c>
+      <c r="Z34">
+        <v>2</v>
+      </c>
+      <c r="AA34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="8:27" x14ac:dyDescent="0.3">
       <c r="I35">
         <v>3</v>
       </c>
@@ -1154,17 +2725,20 @@
       <c r="L35">
         <v>2</v>
       </c>
-      <c r="T35">
-        <v>1</v>
-      </c>
-      <c r="U35">
-        <v>0</v>
-      </c>
-      <c r="V35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="8:22" x14ac:dyDescent="0.3">
+      <c r="X35">
+        <v>3</v>
+      </c>
+      <c r="Y35">
+        <v>2</v>
+      </c>
+      <c r="Z35">
+        <v>2</v>
+      </c>
+      <c r="AA35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="8:27" x14ac:dyDescent="0.3">
       <c r="I36">
         <v>3</v>
       </c>
@@ -1177,17 +2751,20 @@
       <c r="L36">
         <v>2</v>
       </c>
-      <c r="T36">
-        <v>1</v>
-      </c>
-      <c r="U36">
-        <v>0</v>
-      </c>
-      <c r="V36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="8:22" x14ac:dyDescent="0.3">
+      <c r="X36">
+        <v>3</v>
+      </c>
+      <c r="Y36">
+        <v>2</v>
+      </c>
+      <c r="Z36">
+        <v>2</v>
+      </c>
+      <c r="AA36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="8:27" x14ac:dyDescent="0.3">
       <c r="H37">
         <v>4</v>
       </c>
@@ -1203,17 +2780,23 @@
       <c r="L37">
         <v>2</v>
       </c>
-      <c r="T37">
-        <v>1</v>
-      </c>
-      <c r="U37">
-        <v>0</v>
-      </c>
-      <c r="V37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="8:22" x14ac:dyDescent="0.3">
+      <c r="W37">
+        <v>4</v>
+      </c>
+      <c r="X37">
+        <v>3</v>
+      </c>
+      <c r="Y37">
+        <v>2</v>
+      </c>
+      <c r="Z37">
+        <v>2</v>
+      </c>
+      <c r="AA37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="8:27" x14ac:dyDescent="0.3">
       <c r="I38">
         <v>3</v>
       </c>
@@ -1226,11 +2809,20 @@
       <c r="L38">
         <v>2</v>
       </c>
-      <c r="V38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="8:22" x14ac:dyDescent="0.3">
+      <c r="X38">
+        <v>3</v>
+      </c>
+      <c r="Y38">
+        <v>2</v>
+      </c>
+      <c r="Z38">
+        <v>2</v>
+      </c>
+      <c r="AA38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="8:27" x14ac:dyDescent="0.3">
       <c r="I39">
         <v>3</v>
       </c>
@@ -1243,11 +2835,20 @@
       <c r="L39">
         <v>2</v>
       </c>
-      <c r="V39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="8:22" x14ac:dyDescent="0.3">
+      <c r="X39">
+        <v>3</v>
+      </c>
+      <c r="Y39">
+        <v>2</v>
+      </c>
+      <c r="Z39">
+        <v>2</v>
+      </c>
+      <c r="AA39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="8:27" x14ac:dyDescent="0.3">
       <c r="I40">
         <v>3</v>
       </c>
@@ -1260,11 +2861,23 @@
       <c r="L40">
         <v>2</v>
       </c>
-      <c r="V40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="8:22" x14ac:dyDescent="0.3">
+      <c r="W40">
+        <v>41</v>
+      </c>
+      <c r="X40">
+        <v>3</v>
+      </c>
+      <c r="Y40">
+        <v>2</v>
+      </c>
+      <c r="Z40">
+        <v>2</v>
+      </c>
+      <c r="AA40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="8:27" x14ac:dyDescent="0.3">
       <c r="I41">
         <v>3</v>
       </c>
@@ -1277,11 +2890,20 @@
       <c r="L41">
         <v>2</v>
       </c>
-      <c r="V41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="8:22" x14ac:dyDescent="0.3">
+      <c r="X41">
+        <v>3</v>
+      </c>
+      <c r="Y41">
+        <v>2</v>
+      </c>
+      <c r="Z41">
+        <v>2</v>
+      </c>
+      <c r="AA41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="8:27" x14ac:dyDescent="0.3">
       <c r="I42">
         <v>3</v>
       </c>
@@ -1294,11 +2916,20 @@
       <c r="L42">
         <v>2</v>
       </c>
-      <c r="V42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="8:22" x14ac:dyDescent="0.3">
+      <c r="X42">
+        <v>3</v>
+      </c>
+      <c r="Y42">
+        <v>2</v>
+      </c>
+      <c r="Z42">
+        <v>2</v>
+      </c>
+      <c r="AA42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="8:27" x14ac:dyDescent="0.3">
       <c r="H43">
         <v>4</v>
       </c>
@@ -1314,26 +2945,23 @@
       <c r="L43">
         <v>2</v>
       </c>
-      <c r="Q43">
-        <v>1</v>
-      </c>
-      <c r="R43">
-        <v>0</v>
-      </c>
-      <c r="S43">
-        <v>0</v>
-      </c>
-      <c r="T43">
-        <v>0</v>
-      </c>
-      <c r="U43">
-        <v>0</v>
-      </c>
-      <c r="V43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="8:22" x14ac:dyDescent="0.3">
+      <c r="W43">
+        <v>4</v>
+      </c>
+      <c r="X43">
+        <v>3</v>
+      </c>
+      <c r="Y43">
+        <v>2</v>
+      </c>
+      <c r="Z43">
+        <v>2</v>
+      </c>
+      <c r="AA43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="8:27" x14ac:dyDescent="0.3">
       <c r="I44">
         <v>3</v>
       </c>
@@ -1346,26 +2974,20 @@
       <c r="L44">
         <v>2</v>
       </c>
-      <c r="Q44">
-        <v>1</v>
-      </c>
-      <c r="R44">
-        <v>0</v>
-      </c>
-      <c r="S44">
-        <v>0</v>
-      </c>
-      <c r="T44">
-        <v>0</v>
-      </c>
-      <c r="U44">
-        <v>0</v>
-      </c>
-      <c r="V44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="8:22" x14ac:dyDescent="0.3">
+      <c r="X44">
+        <v>3</v>
+      </c>
+      <c r="Y44">
+        <v>2</v>
+      </c>
+      <c r="Z44">
+        <v>2</v>
+      </c>
+      <c r="AA44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="8:27" x14ac:dyDescent="0.3">
       <c r="I45">
         <v>3</v>
       </c>
@@ -1378,8 +3000,20 @@
       <c r="L45">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="8:22" x14ac:dyDescent="0.3">
+      <c r="X45">
+        <v>3</v>
+      </c>
+      <c r="Y45">
+        <v>2</v>
+      </c>
+      <c r="Z45">
+        <v>2</v>
+      </c>
+      <c r="AA45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="8:27" x14ac:dyDescent="0.3">
       <c r="I46">
         <v>3</v>
       </c>
@@ -1392,8 +3026,20 @@
       <c r="L46">
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="8:22" x14ac:dyDescent="0.3">
+      <c r="X46">
+        <v>3</v>
+      </c>
+      <c r="Y46">
+        <v>2</v>
+      </c>
+      <c r="Z46">
+        <v>2</v>
+      </c>
+      <c r="AA46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="8:27" x14ac:dyDescent="0.3">
       <c r="I47">
         <v>3</v>
       </c>
@@ -1406,8 +3052,20 @@
       <c r="L47">
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="8:22" x14ac:dyDescent="0.3">
+      <c r="X47">
+        <v>3</v>
+      </c>
+      <c r="Y47">
+        <v>2</v>
+      </c>
+      <c r="Z47">
+        <v>2</v>
+      </c>
+      <c r="AA47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="8:27" x14ac:dyDescent="0.3">
       <c r="H48">
         <v>4</v>
       </c>
@@ -1423,8 +3081,23 @@
       <c r="L48">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="W48">
+        <v>4</v>
+      </c>
+      <c r="X48">
+        <v>3</v>
+      </c>
+      <c r="Y48">
+        <v>2</v>
+      </c>
+      <c r="Z48">
+        <v>2</v>
+      </c>
+      <c r="AA48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="8:27" x14ac:dyDescent="0.3">
       <c r="I49">
         <v>3</v>
       </c>
@@ -1437,8 +3110,20 @@
       <c r="L49">
         <v>2</v>
       </c>
-    </row>
-    <row r="50" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="X49">
+        <v>3</v>
+      </c>
+      <c r="Y49">
+        <v>2</v>
+      </c>
+      <c r="Z49">
+        <v>2</v>
+      </c>
+      <c r="AA49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="8:27" x14ac:dyDescent="0.3">
       <c r="I50">
         <v>3</v>
       </c>
@@ -1451,8 +3136,20 @@
       <c r="L50">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="X50">
+        <v>3</v>
+      </c>
+      <c r="Y50">
+        <v>2</v>
+      </c>
+      <c r="Z50">
+        <v>2</v>
+      </c>
+      <c r="AA50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="8:27" x14ac:dyDescent="0.3">
       <c r="I51">
         <v>3</v>
       </c>
@@ -1465,8 +3162,23 @@
       <c r="L51">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="W51">
+        <v>41</v>
+      </c>
+      <c r="X51">
+        <v>3</v>
+      </c>
+      <c r="Y51">
+        <v>2</v>
+      </c>
+      <c r="Z51">
+        <v>2</v>
+      </c>
+      <c r="AA51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="8:27" x14ac:dyDescent="0.3">
       <c r="I52">
         <v>3</v>
       </c>
@@ -1479,8 +3191,20 @@
       <c r="L52">
         <v>2</v>
       </c>
-    </row>
-    <row r="53" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="X52">
+        <v>3</v>
+      </c>
+      <c r="Y52">
+        <v>2</v>
+      </c>
+      <c r="Z52">
+        <v>2</v>
+      </c>
+      <c r="AA52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="8:27" x14ac:dyDescent="0.3">
       <c r="H53">
         <v>4</v>
       </c>
@@ -1496,8 +3220,23 @@
       <c r="L53">
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="W53">
+        <v>4</v>
+      </c>
+      <c r="X53">
+        <v>3</v>
+      </c>
+      <c r="Y53">
+        <v>2</v>
+      </c>
+      <c r="Z53">
+        <v>2</v>
+      </c>
+      <c r="AA53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="8:27" x14ac:dyDescent="0.3">
       <c r="I54">
         <v>3</v>
       </c>
@@ -1510,8 +3249,20 @@
       <c r="L54">
         <v>2</v>
       </c>
-    </row>
-    <row r="55" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="X54">
+        <v>3</v>
+      </c>
+      <c r="Y54">
+        <v>2</v>
+      </c>
+      <c r="Z54">
+        <v>2</v>
+      </c>
+      <c r="AA54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="8:27" x14ac:dyDescent="0.3">
       <c r="I55">
         <v>3</v>
       </c>
@@ -1524,8 +3275,20 @@
       <c r="L55">
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="X55">
+        <v>3</v>
+      </c>
+      <c r="Y55">
+        <v>2</v>
+      </c>
+      <c r="Z55">
+        <v>2</v>
+      </c>
+      <c r="AA55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="8:27" x14ac:dyDescent="0.3">
       <c r="H56">
         <v>4</v>
       </c>
@@ -1541,8 +3304,23 @@
       <c r="L56">
         <v>2</v>
       </c>
-    </row>
-    <row r="57" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="W56">
+        <v>4</v>
+      </c>
+      <c r="X56">
+        <v>3</v>
+      </c>
+      <c r="Y56">
+        <v>2</v>
+      </c>
+      <c r="Z56">
+        <v>2</v>
+      </c>
+      <c r="AA56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="8:27" x14ac:dyDescent="0.3">
       <c r="I57">
         <v>3</v>
       </c>
@@ -1555,8 +3333,20 @@
       <c r="L57">
         <v>2</v>
       </c>
-    </row>
-    <row r="58" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="X57">
+        <v>3</v>
+      </c>
+      <c r="Y57">
+        <v>2</v>
+      </c>
+      <c r="Z57">
+        <v>2</v>
+      </c>
+      <c r="AA57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="8:27" x14ac:dyDescent="0.3">
       <c r="I58">
         <v>3</v>
       </c>
@@ -1569,8 +3359,20 @@
       <c r="L58">
         <v>2</v>
       </c>
-    </row>
-    <row r="59" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="X58">
+        <v>3</v>
+      </c>
+      <c r="Y58">
+        <v>2</v>
+      </c>
+      <c r="Z58">
+        <v>2</v>
+      </c>
+      <c r="AA58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="8:27" x14ac:dyDescent="0.3">
       <c r="H59">
         <v>4</v>
       </c>
@@ -1586,8 +3388,23 @@
       <c r="L59">
         <v>2</v>
       </c>
-    </row>
-    <row r="60" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="W59">
+        <v>4</v>
+      </c>
+      <c r="X59">
+        <v>3</v>
+      </c>
+      <c r="Y59">
+        <v>2</v>
+      </c>
+      <c r="Z59">
+        <v>2</v>
+      </c>
+      <c r="AA59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="8:27" x14ac:dyDescent="0.3">
       <c r="I60">
         <v>3</v>
       </c>
@@ -1600,8 +3417,20 @@
       <c r="L60">
         <v>2</v>
       </c>
-    </row>
-    <row r="61" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="X60">
+        <v>3</v>
+      </c>
+      <c r="Y60">
+        <v>2</v>
+      </c>
+      <c r="Z60">
+        <v>2</v>
+      </c>
+      <c r="AA60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="8:27" x14ac:dyDescent="0.3">
       <c r="I61">
         <v>3</v>
       </c>
@@ -1614,8 +3443,20 @@
       <c r="L61">
         <v>2</v>
       </c>
-    </row>
-    <row r="62" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="X61">
+        <v>3</v>
+      </c>
+      <c r="Y61">
+        <v>2</v>
+      </c>
+      <c r="Z61">
+        <v>2</v>
+      </c>
+      <c r="AA61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="8:27" x14ac:dyDescent="0.3">
       <c r="H62">
         <v>4</v>
       </c>
@@ -1631,8 +3472,23 @@
       <c r="L62">
         <v>2</v>
       </c>
-    </row>
-    <row r="63" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="W62">
+        <v>4</v>
+      </c>
+      <c r="X62">
+        <v>3</v>
+      </c>
+      <c r="Y62">
+        <v>2</v>
+      </c>
+      <c r="Z62">
+        <v>2</v>
+      </c>
+      <c r="AA62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="8:27" x14ac:dyDescent="0.3">
       <c r="I63">
         <v>3</v>
       </c>
@@ -1645,8 +3501,20 @@
       <c r="L63">
         <v>2</v>
       </c>
-    </row>
-    <row r="64" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="X63">
+        <v>3</v>
+      </c>
+      <c r="Y63">
+        <v>2</v>
+      </c>
+      <c r="Z63">
+        <v>2</v>
+      </c>
+      <c r="AA63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="8:27" x14ac:dyDescent="0.3">
       <c r="I64">
         <v>3</v>
       </c>
@@ -1659,8 +3527,20 @@
       <c r="L64">
         <v>2</v>
       </c>
-    </row>
-    <row r="65" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="X64">
+        <v>3</v>
+      </c>
+      <c r="Y64">
+        <v>2</v>
+      </c>
+      <c r="Z64">
+        <v>2</v>
+      </c>
+      <c r="AA64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="3:27" x14ac:dyDescent="0.3">
       <c r="H65">
         <v>4</v>
       </c>
@@ -1676,8 +3556,23 @@
       <c r="L65">
         <v>2</v>
       </c>
-    </row>
-    <row r="66" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="W65">
+        <v>4</v>
+      </c>
+      <c r="X65">
+        <v>3</v>
+      </c>
+      <c r="Y65">
+        <v>2</v>
+      </c>
+      <c r="Z65">
+        <v>2</v>
+      </c>
+      <c r="AA65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="3:27" x14ac:dyDescent="0.3">
       <c r="I66">
         <v>3</v>
       </c>
@@ -1690,8 +3585,20 @@
       <c r="L66">
         <v>2</v>
       </c>
-    </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="X66">
+        <v>3</v>
+      </c>
+      <c r="Y66">
+        <v>2</v>
+      </c>
+      <c r="Z66">
+        <v>2</v>
+      </c>
+      <c r="AA66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="3:27" x14ac:dyDescent="0.3">
       <c r="I67">
         <v>3</v>
       </c>
@@ -1704,8 +3611,20 @@
       <c r="L67">
         <v>2</v>
       </c>
-    </row>
-    <row r="68" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="X67">
+        <v>3</v>
+      </c>
+      <c r="Y67">
+        <v>2</v>
+      </c>
+      <c r="Z67">
+        <v>2</v>
+      </c>
+      <c r="AA67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="3:27" x14ac:dyDescent="0.3">
       <c r="H68">
         <v>4</v>
       </c>
@@ -1721,8 +3640,23 @@
       <c r="L68">
         <v>2</v>
       </c>
-    </row>
-    <row r="69" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="W68">
+        <v>4</v>
+      </c>
+      <c r="X68">
+        <v>3</v>
+      </c>
+      <c r="Y68">
+        <v>2</v>
+      </c>
+      <c r="Z68">
+        <v>2</v>
+      </c>
+      <c r="AA68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="3:27" x14ac:dyDescent="0.3">
       <c r="I69">
         <v>3</v>
       </c>
@@ -1735,8 +3669,20 @@
       <c r="L69">
         <v>2</v>
       </c>
-    </row>
-    <row r="70" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="X69">
+        <v>3</v>
+      </c>
+      <c r="Y69">
+        <v>2</v>
+      </c>
+      <c r="Z69">
+        <v>2</v>
+      </c>
+      <c r="AA69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="3:27" x14ac:dyDescent="0.3">
       <c r="I70">
         <v>3</v>
       </c>
@@ -1749,8 +3695,20 @@
       <c r="L70">
         <v>2</v>
       </c>
-    </row>
-    <row r="71" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="X70">
+        <v>3</v>
+      </c>
+      <c r="Y70">
+        <v>2</v>
+      </c>
+      <c r="Z70">
+        <v>2</v>
+      </c>
+      <c r="AA70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="3:27" x14ac:dyDescent="0.3">
       <c r="H71">
         <v>1</v>
       </c>
@@ -1766,8 +3724,23 @@
       <c r="L71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="W71">
+        <v>1</v>
+      </c>
+      <c r="X71">
+        <v>0</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="3:27" x14ac:dyDescent="0.3">
       <c r="H72">
         <v>1</v>
       </c>
@@ -1783,8 +3756,23 @@
       <c r="L72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="W72">
+        <v>1</v>
+      </c>
+      <c r="X72">
+        <v>0</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="3:27" x14ac:dyDescent="0.3">
       <c r="H73">
         <v>1</v>
       </c>
@@ -1800,8 +3788,23 @@
       <c r="L73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="W73">
+        <v>1</v>
+      </c>
+      <c r="X73">
+        <v>0</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="3:27" x14ac:dyDescent="0.3">
       <c r="G74">
         <v>8</v>
       </c>
@@ -1820,8 +3823,23 @@
       <c r="L74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="W74">
+        <v>1</v>
+      </c>
+      <c r="X74">
+        <v>0</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="3:27" x14ac:dyDescent="0.3">
       <c r="H75">
         <v>1</v>
       </c>
@@ -1837,8 +3855,23 @@
       <c r="L75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="W75">
+        <v>1</v>
+      </c>
+      <c r="X75">
+        <v>0</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="3:27" x14ac:dyDescent="0.3">
       <c r="H76">
         <v>1</v>
       </c>
@@ -1854,8 +3887,23 @@
       <c r="L76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="W76">
+        <v>1</v>
+      </c>
+      <c r="X76">
+        <v>0</v>
+      </c>
+      <c r="Y76">
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C77">
         <v>9</v>
       </c>
@@ -1884,6 +3932,926 @@
         <v>0</v>
       </c>
       <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>9</v>
+      </c>
+      <c r="O77">
+        <v>9</v>
+      </c>
+      <c r="P77">
+        <v>9</v>
+      </c>
+      <c r="Q77">
+        <v>9</v>
+      </c>
+      <c r="W77">
+        <v>1</v>
+      </c>
+      <c r="X77">
+        <v>0</v>
+      </c>
+      <c r="Y77">
+        <v>0</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="X78">
+        <v>3</v>
+      </c>
+      <c r="Y78">
+        <v>2</v>
+      </c>
+      <c r="Z78">
+        <v>2</v>
+      </c>
+      <c r="AA78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="X79">
+        <v>3</v>
+      </c>
+      <c r="Y79">
+        <v>2</v>
+      </c>
+      <c r="Z79">
+        <v>2</v>
+      </c>
+      <c r="AA79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="W80">
+        <v>4</v>
+      </c>
+      <c r="X80">
+        <v>3</v>
+      </c>
+      <c r="Y80">
+        <v>2</v>
+      </c>
+      <c r="Z80">
+        <v>2</v>
+      </c>
+      <c r="AA80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="23:27" x14ac:dyDescent="0.3">
+      <c r="X81">
+        <v>3</v>
+      </c>
+      <c r="Y81">
+        <v>2</v>
+      </c>
+      <c r="Z81">
+        <v>2</v>
+      </c>
+      <c r="AA81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="23:27" x14ac:dyDescent="0.3">
+      <c r="X82">
+        <v>3</v>
+      </c>
+      <c r="Y82">
+        <v>2</v>
+      </c>
+      <c r="Z82">
+        <v>2</v>
+      </c>
+      <c r="AA82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="23:27" x14ac:dyDescent="0.3">
+      <c r="W83">
+        <v>4</v>
+      </c>
+      <c r="X83">
+        <v>3</v>
+      </c>
+      <c r="Y83">
+        <v>2</v>
+      </c>
+      <c r="Z83">
+        <v>2</v>
+      </c>
+      <c r="AA83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="23:27" x14ac:dyDescent="0.3">
+      <c r="X84">
+        <v>3</v>
+      </c>
+      <c r="Y84">
+        <v>2</v>
+      </c>
+      <c r="Z84">
+        <v>2</v>
+      </c>
+      <c r="AA84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="23:27" x14ac:dyDescent="0.3">
+      <c r="X85">
+        <v>3</v>
+      </c>
+      <c r="Y85">
+        <v>2</v>
+      </c>
+      <c r="Z85">
+        <v>2</v>
+      </c>
+      <c r="AA85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="23:27" x14ac:dyDescent="0.3">
+      <c r="W86">
+        <v>4</v>
+      </c>
+      <c r="X86">
+        <v>3</v>
+      </c>
+      <c r="Y86">
+        <v>2</v>
+      </c>
+      <c r="Z86">
+        <v>2</v>
+      </c>
+      <c r="AA86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="23:27" x14ac:dyDescent="0.3">
+      <c r="X87">
+        <v>3</v>
+      </c>
+      <c r="Y87">
+        <v>2</v>
+      </c>
+      <c r="Z87">
+        <v>2</v>
+      </c>
+      <c r="AA87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="23:27" x14ac:dyDescent="0.3">
+      <c r="W88">
+        <v>4</v>
+      </c>
+      <c r="X88">
+        <v>3</v>
+      </c>
+      <c r="Y88">
+        <v>2</v>
+      </c>
+      <c r="Z88">
+        <v>2</v>
+      </c>
+      <c r="AA88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="23:27" x14ac:dyDescent="0.3">
+      <c r="X89">
+        <v>3</v>
+      </c>
+      <c r="Y89">
+        <v>2</v>
+      </c>
+      <c r="Z89">
+        <v>2</v>
+      </c>
+      <c r="AA89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="23:27" x14ac:dyDescent="0.3">
+      <c r="X90">
+        <v>3</v>
+      </c>
+      <c r="Y90">
+        <v>2</v>
+      </c>
+      <c r="Z90">
+        <v>2</v>
+      </c>
+      <c r="AA90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="23:27" x14ac:dyDescent="0.3">
+      <c r="W91">
+        <v>41</v>
+      </c>
+      <c r="X91">
+        <v>3</v>
+      </c>
+      <c r="Y91">
+        <v>2</v>
+      </c>
+      <c r="Z91">
+        <v>2</v>
+      </c>
+      <c r="AA91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="23:27" x14ac:dyDescent="0.3">
+      <c r="X92">
+        <v>3</v>
+      </c>
+      <c r="Y92">
+        <v>2</v>
+      </c>
+      <c r="Z92">
+        <v>2</v>
+      </c>
+      <c r="AA92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="23:27" x14ac:dyDescent="0.3">
+      <c r="W93">
+        <v>4</v>
+      </c>
+      <c r="X93">
+        <v>3</v>
+      </c>
+      <c r="Y93">
+        <v>2</v>
+      </c>
+      <c r="Z93">
+        <v>2</v>
+      </c>
+      <c r="AA93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="23:27" x14ac:dyDescent="0.3">
+      <c r="X94">
+        <v>3</v>
+      </c>
+      <c r="Y94">
+        <v>2</v>
+      </c>
+      <c r="Z94">
+        <v>2</v>
+      </c>
+      <c r="AA94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="23:27" x14ac:dyDescent="0.3">
+      <c r="X95">
+        <v>3</v>
+      </c>
+      <c r="Y95">
+        <v>2</v>
+      </c>
+      <c r="Z95">
+        <v>2</v>
+      </c>
+      <c r="AA95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="23:27" x14ac:dyDescent="0.3">
+      <c r="W96">
+        <v>41</v>
+      </c>
+      <c r="X96">
+        <v>3</v>
+      </c>
+      <c r="Y96">
+        <v>2</v>
+      </c>
+      <c r="Z96">
+        <v>2</v>
+      </c>
+      <c r="AA96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="23:27" x14ac:dyDescent="0.3">
+      <c r="X97">
+        <v>3</v>
+      </c>
+      <c r="Y97">
+        <v>2</v>
+      </c>
+      <c r="Z97">
+        <v>2</v>
+      </c>
+      <c r="AA97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="23:27" x14ac:dyDescent="0.3">
+      <c r="W98">
+        <v>4</v>
+      </c>
+      <c r="X98">
+        <v>3</v>
+      </c>
+      <c r="Y98">
+        <v>2</v>
+      </c>
+      <c r="Z98">
+        <v>2</v>
+      </c>
+      <c r="AA98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="23:27" x14ac:dyDescent="0.3">
+      <c r="X99">
+        <v>3</v>
+      </c>
+      <c r="Y99">
+        <v>2</v>
+      </c>
+      <c r="Z99">
+        <v>2</v>
+      </c>
+      <c r="AA99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="23:27" x14ac:dyDescent="0.3">
+      <c r="W100">
+        <v>4</v>
+      </c>
+      <c r="X100">
+        <v>3</v>
+      </c>
+      <c r="Y100">
+        <v>2</v>
+      </c>
+      <c r="Z100">
+        <v>2</v>
+      </c>
+      <c r="AA100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="23:27" x14ac:dyDescent="0.3">
+      <c r="X101">
+        <v>3</v>
+      </c>
+      <c r="Y101">
+        <v>2</v>
+      </c>
+      <c r="Z101">
+        <v>2</v>
+      </c>
+      <c r="AA101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="23:27" x14ac:dyDescent="0.3">
+      <c r="W102">
+        <v>4</v>
+      </c>
+      <c r="X102">
+        <v>3</v>
+      </c>
+      <c r="Y102">
+        <v>2</v>
+      </c>
+      <c r="Z102">
+        <v>2</v>
+      </c>
+      <c r="AA102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="23:27" x14ac:dyDescent="0.3">
+      <c r="X103">
+        <v>3</v>
+      </c>
+      <c r="Y103">
+        <v>2</v>
+      </c>
+      <c r="Z103">
+        <v>2</v>
+      </c>
+      <c r="AA103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="23:27" x14ac:dyDescent="0.3">
+      <c r="W104">
+        <v>4</v>
+      </c>
+      <c r="X104">
+        <v>3</v>
+      </c>
+      <c r="Y104">
+        <v>2</v>
+      </c>
+      <c r="Z104">
+        <v>2</v>
+      </c>
+      <c r="AA104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="23:27" x14ac:dyDescent="0.3">
+      <c r="X105">
+        <v>3</v>
+      </c>
+      <c r="Y105">
+        <v>2</v>
+      </c>
+      <c r="Z105">
+        <v>2</v>
+      </c>
+      <c r="AA105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="23:27" x14ac:dyDescent="0.3">
+      <c r="X106">
+        <v>3</v>
+      </c>
+      <c r="Y106">
+        <v>2</v>
+      </c>
+      <c r="Z106">
+        <v>2</v>
+      </c>
+      <c r="AA106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="23:27" x14ac:dyDescent="0.3">
+      <c r="W107">
+        <v>4</v>
+      </c>
+      <c r="X107">
+        <v>3</v>
+      </c>
+      <c r="Y107">
+        <v>2</v>
+      </c>
+      <c r="Z107">
+        <v>2</v>
+      </c>
+      <c r="AA107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="23:27" x14ac:dyDescent="0.3">
+      <c r="X108">
+        <v>3</v>
+      </c>
+      <c r="Y108">
+        <v>2</v>
+      </c>
+      <c r="Z108">
+        <v>2</v>
+      </c>
+      <c r="AA108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="23:27" x14ac:dyDescent="0.3">
+      <c r="X109">
+        <v>3</v>
+      </c>
+      <c r="Y109">
+        <v>2</v>
+      </c>
+      <c r="Z109">
+        <v>2</v>
+      </c>
+      <c r="AA109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="23:27" x14ac:dyDescent="0.3">
+      <c r="W110">
+        <v>4</v>
+      </c>
+      <c r="X110">
+        <v>3</v>
+      </c>
+      <c r="Y110">
+        <v>2</v>
+      </c>
+      <c r="Z110">
+        <v>2</v>
+      </c>
+      <c r="AA110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="23:27" x14ac:dyDescent="0.3">
+      <c r="X111">
+        <v>3</v>
+      </c>
+      <c r="Y111">
+        <v>2</v>
+      </c>
+      <c r="Z111">
+        <v>2</v>
+      </c>
+      <c r="AA111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="23:27" x14ac:dyDescent="0.3">
+      <c r="W112">
+        <v>41</v>
+      </c>
+      <c r="X112">
+        <v>3</v>
+      </c>
+      <c r="Y112">
+        <v>2</v>
+      </c>
+      <c r="Z112">
+        <v>2</v>
+      </c>
+      <c r="AA112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="23:27" x14ac:dyDescent="0.3">
+      <c r="X113">
+        <v>3</v>
+      </c>
+      <c r="Y113">
+        <v>2</v>
+      </c>
+      <c r="Z113">
+        <v>2</v>
+      </c>
+      <c r="AA113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="23:27" x14ac:dyDescent="0.3">
+      <c r="X114">
+        <v>3</v>
+      </c>
+      <c r="Y114">
+        <v>2</v>
+      </c>
+      <c r="Z114">
+        <v>2</v>
+      </c>
+      <c r="AA114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="23:27" x14ac:dyDescent="0.3">
+      <c r="W115">
+        <v>4</v>
+      </c>
+      <c r="X115">
+        <v>3</v>
+      </c>
+      <c r="Y115">
+        <v>2</v>
+      </c>
+      <c r="Z115">
+        <v>2</v>
+      </c>
+      <c r="AA115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="23:27" x14ac:dyDescent="0.3">
+      <c r="X116">
+        <v>3</v>
+      </c>
+      <c r="Y116">
+        <v>2</v>
+      </c>
+      <c r="Z116">
+        <v>2</v>
+      </c>
+      <c r="AA116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="23:27" x14ac:dyDescent="0.3">
+      <c r="W117">
+        <v>4</v>
+      </c>
+      <c r="X117">
+        <v>3</v>
+      </c>
+      <c r="Y117">
+        <v>2</v>
+      </c>
+      <c r="Z117">
+        <v>2</v>
+      </c>
+      <c r="AA117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="23:27" x14ac:dyDescent="0.3">
+      <c r="X118">
+        <v>3</v>
+      </c>
+      <c r="Y118">
+        <v>2</v>
+      </c>
+      <c r="Z118">
+        <v>2</v>
+      </c>
+      <c r="AA118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="23:27" x14ac:dyDescent="0.3">
+      <c r="X119">
+        <v>3</v>
+      </c>
+      <c r="Y119">
+        <v>2</v>
+      </c>
+      <c r="Z119">
+        <v>2</v>
+      </c>
+      <c r="AA119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="23:27" x14ac:dyDescent="0.3">
+      <c r="W120">
+        <v>4</v>
+      </c>
+      <c r="X120">
+        <v>3</v>
+      </c>
+      <c r="Y120">
+        <v>2</v>
+      </c>
+      <c r="Z120">
+        <v>2</v>
+      </c>
+      <c r="AA120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="23:27" x14ac:dyDescent="0.3">
+      <c r="X121">
+        <v>3</v>
+      </c>
+      <c r="Y121">
+        <v>2</v>
+      </c>
+      <c r="Z121">
+        <v>2</v>
+      </c>
+      <c r="AA121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="23:27" x14ac:dyDescent="0.3">
+      <c r="W122">
+        <v>1</v>
+      </c>
+      <c r="X122">
+        <v>0</v>
+      </c>
+      <c r="Y122">
+        <v>0</v>
+      </c>
+      <c r="Z122">
+        <v>0</v>
+      </c>
+      <c r="AA122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="23:27" x14ac:dyDescent="0.3">
+      <c r="X123">
+        <v>3</v>
+      </c>
+      <c r="Y123">
+        <v>2</v>
+      </c>
+      <c r="Z123">
+        <v>2</v>
+      </c>
+      <c r="AA123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="23:27" x14ac:dyDescent="0.3">
+      <c r="X124">
+        <v>3</v>
+      </c>
+      <c r="Y124">
+        <v>2</v>
+      </c>
+      <c r="Z124">
+        <v>2</v>
+      </c>
+      <c r="AA124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="23:27" x14ac:dyDescent="0.3">
+      <c r="W125">
+        <v>41</v>
+      </c>
+      <c r="X125">
+        <v>3</v>
+      </c>
+      <c r="Y125">
+        <v>2</v>
+      </c>
+      <c r="Z125">
+        <v>2</v>
+      </c>
+      <c r="AA125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="23:27" x14ac:dyDescent="0.3">
+      <c r="W126">
+        <v>4</v>
+      </c>
+      <c r="X126">
+        <v>3</v>
+      </c>
+      <c r="Y126">
+        <v>2</v>
+      </c>
+      <c r="Z126">
+        <v>2</v>
+      </c>
+      <c r="AA126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="23:27" x14ac:dyDescent="0.3">
+      <c r="X127">
+        <v>3</v>
+      </c>
+      <c r="Y127">
+        <v>2</v>
+      </c>
+      <c r="Z127">
+        <v>2</v>
+      </c>
+      <c r="AA127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="23:27" x14ac:dyDescent="0.3">
+      <c r="W128">
+        <v>4</v>
+      </c>
+      <c r="X128">
+        <v>3</v>
+      </c>
+      <c r="Y128">
+        <v>2</v>
+      </c>
+      <c r="Z128">
+        <v>2</v>
+      </c>
+      <c r="AA128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="23:27" x14ac:dyDescent="0.3">
+      <c r="W129">
+        <v>4</v>
+      </c>
+      <c r="X129">
+        <v>3</v>
+      </c>
+      <c r="Y129">
+        <v>2</v>
+      </c>
+      <c r="Z129">
+        <v>2</v>
+      </c>
+      <c r="AA129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="23:27" x14ac:dyDescent="0.3">
+      <c r="X130">
+        <v>3</v>
+      </c>
+      <c r="Y130">
+        <v>2</v>
+      </c>
+      <c r="Z130">
+        <v>2</v>
+      </c>
+      <c r="AA130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="23:27" x14ac:dyDescent="0.3">
+      <c r="W131">
+        <v>1</v>
+      </c>
+      <c r="X131">
+        <v>0</v>
+      </c>
+      <c r="Y131">
+        <v>0</v>
+      </c>
+      <c r="Z131">
+        <v>0</v>
+      </c>
+      <c r="AA131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="23:27" x14ac:dyDescent="0.3">
+      <c r="W132">
+        <v>1</v>
+      </c>
+      <c r="X132">
+        <v>0</v>
+      </c>
+      <c r="Y132">
+        <v>0</v>
+      </c>
+      <c r="Z132">
+        <v>0</v>
+      </c>
+      <c r="AA132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="23:27" x14ac:dyDescent="0.3">
+      <c r="W133">
+        <v>1</v>
+      </c>
+      <c r="X133">
+        <v>0</v>
+      </c>
+      <c r="Y133">
+        <v>0</v>
+      </c>
+      <c r="Z133">
+        <v>0</v>
+      </c>
+      <c r="AA133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="23:27" x14ac:dyDescent="0.3">
+      <c r="W134">
+        <v>1</v>
+      </c>
+      <c r="X134">
+        <v>0</v>
+      </c>
+      <c r="Y134">
+        <v>0</v>
+      </c>
+      <c r="Z134">
+        <v>0</v>
+      </c>
+      <c r="AA134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="23:27" x14ac:dyDescent="0.3">
+      <c r="W135">
+        <v>1</v>
+      </c>
+      <c r="X135">
+        <v>0</v>
+      </c>
+      <c r="Y135">
+        <v>0</v>
+      </c>
+      <c r="Z135">
+        <v>0</v>
+      </c>
+      <c r="AA135">
         <v>0</v>
       </c>
     </row>
